--- a/gapminder_dirty_strings.xlsx
+++ b/gapminder_dirty_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/m_wiemers_lse_ac_uk/Documents/DSL/Trainings/Stata/Stata_practicals/data_cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_C736DFC8F991A9F360160BCFE3D8DA335129C83E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D77A506-2C2B-43D0-9782-E7602DD1C928}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_C736DFC8F991A9F360160BCFE3D8DA335129C83E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{508DAAFF-B4C3-4CF7-B518-20FBB8128551}"/>
   <bookViews>
-    <workbookView xWindow="30900" yWindow="1380" windowWidth="22230" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6495" uniqueCount="5166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6489" uniqueCount="5160">
   <si>
     <t>country</t>
   </si>
@@ -11717,24 +11717,6 @@
   </si>
   <si>
     <t>13,367,997.0</t>
-  </si>
-  <si>
-    <t>1,210.884633</t>
-  </si>
-  <si>
-    <t>46.1</t>
-  </si>
-  <si>
-    <t>8,381,163.0</t>
-  </si>
-  <si>
-    <t>693.4207856</t>
-  </si>
-  <si>
-    <t>60.377</t>
-  </si>
-  <si>
-    <t>10,704,340.0</t>
   </si>
   <si>
     <t>635.341351</t>
@@ -15921,8 +15903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:O19"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="L425" sqref="L424:L425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16012,13 +15994,13 @@
         <v>3481</v>
       </c>
       <c r="M2" t="s">
-        <v>3905</v>
+        <v>3899</v>
       </c>
       <c r="N2" t="s">
-        <v>4326</v>
+        <v>4320</v>
       </c>
       <c r="O2" t="s">
-        <v>4742</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -16059,13 +16041,13 @@
         <v>3482</v>
       </c>
       <c r="M3" t="s">
-        <v>3906</v>
+        <v>3900</v>
       </c>
       <c r="N3" t="s">
-        <v>4327</v>
+        <v>4321</v>
       </c>
       <c r="O3" t="s">
-        <v>4743</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -16106,13 +16088,13 @@
         <v>3483</v>
       </c>
       <c r="M4" t="s">
-        <v>3907</v>
+        <v>3901</v>
       </c>
       <c r="N4" t="s">
-        <v>4328</v>
+        <v>4322</v>
       </c>
       <c r="O4" t="s">
-        <v>4744</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -16153,13 +16135,13 @@
         <v>3481</v>
       </c>
       <c r="M5" t="s">
-        <v>3905</v>
+        <v>3899</v>
       </c>
       <c r="N5" t="s">
-        <v>4326</v>
+        <v>4320</v>
       </c>
       <c r="O5" t="s">
-        <v>4742</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -16200,13 +16182,13 @@
         <v>3482</v>
       </c>
       <c r="M6" t="s">
-        <v>3906</v>
+        <v>3900</v>
       </c>
       <c r="N6" t="s">
-        <v>4327</v>
+        <v>4321</v>
       </c>
       <c r="O6" t="s">
-        <v>4743</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -16247,13 +16229,13 @@
         <v>3483</v>
       </c>
       <c r="M7" t="s">
-        <v>3907</v>
+        <v>3901</v>
       </c>
       <c r="N7" t="s">
-        <v>4328</v>
+        <v>4322</v>
       </c>
       <c r="O7" t="s">
-        <v>4744</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -16294,13 +16276,13 @@
         <v>3484</v>
       </c>
       <c r="M8" t="s">
-        <v>3908</v>
+        <v>3902</v>
       </c>
       <c r="N8" t="s">
-        <v>4329</v>
+        <v>4323</v>
       </c>
       <c r="O8" t="s">
-        <v>4745</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -16341,13 +16323,13 @@
         <v>3485</v>
       </c>
       <c r="M9" t="s">
-        <v>3909</v>
+        <v>3903</v>
       </c>
       <c r="N9" t="s">
-        <v>4330</v>
+        <v>4324</v>
       </c>
       <c r="O9" t="s">
-        <v>4746</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -16388,13 +16370,13 @@
         <v>3486</v>
       </c>
       <c r="M10" t="s">
-        <v>3910</v>
+        <v>3904</v>
       </c>
       <c r="N10" t="s">
-        <v>4331</v>
+        <v>4325</v>
       </c>
       <c r="O10" t="s">
-        <v>4747</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -16435,13 +16417,13 @@
         <v>3487</v>
       </c>
       <c r="M11" t="s">
-        <v>3911</v>
+        <v>3905</v>
       </c>
       <c r="N11" t="s">
-        <v>4332</v>
+        <v>4326</v>
       </c>
       <c r="O11" t="s">
-        <v>4748</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -16482,13 +16464,13 @@
         <v>3488</v>
       </c>
       <c r="M12" t="s">
-        <v>3912</v>
+        <v>3906</v>
       </c>
       <c r="N12" t="s">
-        <v>4333</v>
+        <v>4327</v>
       </c>
       <c r="O12" t="s">
-        <v>4749</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -16529,13 +16511,13 @@
         <v>3489</v>
       </c>
       <c r="M13" t="s">
-        <v>3913</v>
+        <v>3907</v>
       </c>
       <c r="N13" t="s">
-        <v>4334</v>
+        <v>4328</v>
       </c>
       <c r="O13" t="s">
-        <v>4750</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -16576,13 +16558,13 @@
         <v>3490</v>
       </c>
       <c r="M14" t="s">
-        <v>3914</v>
+        <v>3908</v>
       </c>
       <c r="N14" t="s">
-        <v>4335</v>
+        <v>4329</v>
       </c>
       <c r="O14" t="s">
-        <v>4751</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -16623,13 +16605,13 @@
         <v>3491</v>
       </c>
       <c r="M15" t="s">
-        <v>3915</v>
+        <v>3909</v>
       </c>
       <c r="N15" t="s">
-        <v>4336</v>
+        <v>4330</v>
       </c>
       <c r="O15" t="s">
-        <v>4752</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -16670,13 +16652,13 @@
         <v>3492</v>
       </c>
       <c r="M16" t="s">
-        <v>3916</v>
+        <v>3910</v>
       </c>
       <c r="N16" t="s">
-        <v>4337</v>
+        <v>4331</v>
       </c>
       <c r="O16" t="s">
-        <v>4753</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -16717,13 +16699,13 @@
         <v>3493</v>
       </c>
       <c r="M17" t="s">
-        <v>3917</v>
+        <v>3911</v>
       </c>
       <c r="N17" t="s">
-        <v>4338</v>
+        <v>4332</v>
       </c>
       <c r="O17" t="s">
-        <v>4754</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -16764,13 +16746,13 @@
         <v>3494</v>
       </c>
       <c r="M18" t="s">
-        <v>3918</v>
+        <v>3912</v>
       </c>
       <c r="N18" t="s">
         <v>2096</v>
       </c>
       <c r="O18" t="s">
-        <v>4755</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -16811,13 +16793,13 @@
         <v>3495</v>
       </c>
       <c r="M19" t="s">
-        <v>3919</v>
+        <v>3913</v>
       </c>
       <c r="N19" t="s">
-        <v>4339</v>
+        <v>4333</v>
       </c>
       <c r="O19" t="s">
-        <v>4756</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -16858,13 +16840,13 @@
         <v>3493</v>
       </c>
       <c r="M20" t="s">
-        <v>3917</v>
+        <v>3911</v>
       </c>
       <c r="N20" t="s">
-        <v>4338</v>
+        <v>4332</v>
       </c>
       <c r="O20" t="s">
-        <v>4754</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -16905,13 +16887,13 @@
         <v>3494</v>
       </c>
       <c r="M21" t="s">
-        <v>3918</v>
+        <v>3912</v>
       </c>
       <c r="N21" t="s">
         <v>2096</v>
       </c>
       <c r="O21" t="s">
-        <v>4755</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -16952,13 +16934,13 @@
         <v>3495</v>
       </c>
       <c r="M22" t="s">
-        <v>3919</v>
+        <v>3913</v>
       </c>
       <c r="N22" t="s">
-        <v>4339</v>
+        <v>4333</v>
       </c>
       <c r="O22" t="s">
-        <v>4756</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -16999,13 +16981,13 @@
         <v>3496</v>
       </c>
       <c r="M23" t="s">
-        <v>3920</v>
+        <v>3914</v>
       </c>
       <c r="N23" t="s">
-        <v>4340</v>
+        <v>4334</v>
       </c>
       <c r="O23" t="s">
-        <v>4757</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -17046,13 +17028,13 @@
         <v>3497</v>
       </c>
       <c r="M24" t="s">
-        <v>3921</v>
+        <v>3915</v>
       </c>
       <c r="N24" t="s">
-        <v>4341</v>
+        <v>4335</v>
       </c>
       <c r="O24" t="s">
-        <v>4758</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -17093,13 +17075,13 @@
         <v>3498</v>
       </c>
       <c r="M25" t="s">
-        <v>3922</v>
+        <v>3916</v>
       </c>
       <c r="N25" t="s">
-        <v>4342</v>
+        <v>4336</v>
       </c>
       <c r="O25" t="s">
-        <v>4759</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -17140,13 +17122,13 @@
         <v>3499</v>
       </c>
       <c r="M26" t="s">
-        <v>3923</v>
+        <v>3917</v>
       </c>
       <c r="N26" t="s">
-        <v>4343</v>
+        <v>4337</v>
       </c>
       <c r="O26" t="s">
-        <v>4760</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -17187,13 +17169,13 @@
         <v>3500</v>
       </c>
       <c r="M27" t="s">
-        <v>3924</v>
+        <v>3918</v>
       </c>
       <c r="N27" t="s">
-        <v>4344</v>
+        <v>4338</v>
       </c>
       <c r="O27" t="s">
-        <v>4761</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -17234,13 +17216,13 @@
         <v>3501</v>
       </c>
       <c r="M28" t="s">
-        <v>3925</v>
+        <v>3919</v>
       </c>
       <c r="N28" t="s">
-        <v>4345</v>
+        <v>4339</v>
       </c>
       <c r="O28" t="s">
-        <v>4762</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -17281,13 +17263,13 @@
         <v>3502</v>
       </c>
       <c r="M29" t="s">
-        <v>3926</v>
+        <v>3920</v>
       </c>
       <c r="N29" t="s">
-        <v>4346</v>
+        <v>4340</v>
       </c>
       <c r="O29" t="s">
-        <v>4763</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -17328,13 +17310,13 @@
         <v>3503</v>
       </c>
       <c r="M30" t="s">
-        <v>3927</v>
+        <v>3921</v>
       </c>
       <c r="N30" t="s">
-        <v>4347</v>
+        <v>4341</v>
       </c>
       <c r="O30" t="s">
-        <v>4764</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -17375,13 +17357,13 @@
         <v>3504</v>
       </c>
       <c r="M31" t="s">
-        <v>3928</v>
+        <v>3922</v>
       </c>
       <c r="N31" t="s">
-        <v>4348</v>
+        <v>4342</v>
       </c>
       <c r="O31" t="s">
-        <v>4765</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -17422,13 +17404,13 @@
         <v>3505</v>
       </c>
       <c r="M32" t="s">
-        <v>3929</v>
+        <v>3923</v>
       </c>
       <c r="N32" t="s">
-        <v>4349</v>
+        <v>4343</v>
       </c>
       <c r="O32" t="s">
-        <v>4766</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -17469,13 +17451,13 @@
         <v>3506</v>
       </c>
       <c r="M33" t="s">
-        <v>3930</v>
+        <v>3924</v>
       </c>
       <c r="N33" t="s">
-        <v>4350</v>
+        <v>4344</v>
       </c>
       <c r="O33" t="s">
-        <v>4767</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -17516,13 +17498,13 @@
         <v>3507</v>
       </c>
       <c r="M34" t="s">
-        <v>3931</v>
+        <v>3925</v>
       </c>
       <c r="N34" t="s">
-        <v>4351</v>
+        <v>4345</v>
       </c>
       <c r="O34" t="s">
-        <v>4768</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -17563,13 +17545,13 @@
         <v>3508</v>
       </c>
       <c r="M35" t="s">
-        <v>3932</v>
+        <v>3926</v>
       </c>
       <c r="N35" t="s">
-        <v>4352</v>
+        <v>4346</v>
       </c>
       <c r="O35" t="s">
-        <v>4769</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -17610,13 +17592,13 @@
         <v>3509</v>
       </c>
       <c r="M36" t="s">
-        <v>3933</v>
+        <v>3927</v>
       </c>
       <c r="N36" t="s">
-        <v>4188</v>
+        <v>4182</v>
       </c>
       <c r="O36" t="s">
-        <v>4770</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -17657,13 +17639,13 @@
         <v>3510</v>
       </c>
       <c r="M37" t="s">
-        <v>3934</v>
+        <v>3928</v>
       </c>
       <c r="N37" t="s">
-        <v>4353</v>
+        <v>4347</v>
       </c>
       <c r="O37" t="s">
-        <v>4771</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -17704,13 +17686,13 @@
         <v>3511</v>
       </c>
       <c r="M38" t="s">
-        <v>3935</v>
+        <v>3929</v>
       </c>
       <c r="N38" t="s">
-        <v>4354</v>
+        <v>4348</v>
       </c>
       <c r="O38" t="s">
-        <v>4772</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -17751,13 +17733,13 @@
         <v>3512</v>
       </c>
       <c r="M39" t="s">
-        <v>3936</v>
+        <v>3930</v>
       </c>
       <c r="N39" t="s">
-        <v>4355</v>
+        <v>4349</v>
       </c>
       <c r="O39" t="s">
-        <v>4773</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -17798,13 +17780,13 @@
         <v>3513</v>
       </c>
       <c r="M40" t="s">
-        <v>3937</v>
+        <v>3931</v>
       </c>
       <c r="N40" t="s">
-        <v>4356</v>
+        <v>4350</v>
       </c>
       <c r="O40" t="s">
-        <v>4774</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -17845,13 +17827,13 @@
         <v>3514</v>
       </c>
       <c r="M41" t="s">
-        <v>3938</v>
+        <v>3932</v>
       </c>
       <c r="N41" t="s">
-        <v>4357</v>
+        <v>4351</v>
       </c>
       <c r="O41" t="s">
-        <v>4775</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -17892,13 +17874,13 @@
         <v>3515</v>
       </c>
       <c r="M42" t="s">
-        <v>3939</v>
+        <v>3933</v>
       </c>
       <c r="N42" t="s">
-        <v>4358</v>
+        <v>4352</v>
       </c>
       <c r="O42" t="s">
-        <v>4776</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -17939,13 +17921,13 @@
         <v>3516</v>
       </c>
       <c r="M43" t="s">
-        <v>3940</v>
+        <v>3934</v>
       </c>
       <c r="N43" t="s">
-        <v>4359</v>
+        <v>4353</v>
       </c>
       <c r="O43" t="s">
-        <v>4777</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -17986,13 +17968,13 @@
         <v>3517</v>
       </c>
       <c r="M44" t="s">
-        <v>3941</v>
+        <v>3935</v>
       </c>
       <c r="N44" t="s">
-        <v>4360</v>
+        <v>4354</v>
       </c>
       <c r="O44" t="s">
-        <v>4778</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -18033,13 +18015,13 @@
         <v>3518</v>
       </c>
       <c r="M45" t="s">
-        <v>3942</v>
+        <v>3936</v>
       </c>
       <c r="N45" t="s">
-        <v>4361</v>
+        <v>4355</v>
       </c>
       <c r="O45" t="s">
-        <v>4779</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -18080,13 +18062,13 @@
         <v>3519</v>
       </c>
       <c r="M46" t="s">
-        <v>3943</v>
+        <v>3937</v>
       </c>
       <c r="N46" t="s">
-        <v>4362</v>
+        <v>4356</v>
       </c>
       <c r="O46" t="s">
-        <v>4780</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -18127,13 +18109,13 @@
         <v>3520</v>
       </c>
       <c r="M47" t="s">
-        <v>3944</v>
+        <v>3938</v>
       </c>
       <c r="N47" t="s">
-        <v>4363</v>
+        <v>4357</v>
       </c>
       <c r="O47" t="s">
-        <v>4781</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -18174,13 +18156,13 @@
         <v>3521</v>
       </c>
       <c r="M48" t="s">
-        <v>3945</v>
+        <v>3939</v>
       </c>
       <c r="N48" t="s">
-        <v>4364</v>
+        <v>4358</v>
       </c>
       <c r="O48" t="s">
-        <v>4782</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -18221,13 +18203,13 @@
         <v>3522</v>
       </c>
       <c r="M49" t="s">
-        <v>3946</v>
+        <v>3940</v>
       </c>
       <c r="N49" t="s">
-        <v>4365</v>
+        <v>4359</v>
       </c>
       <c r="O49" t="s">
-        <v>4783</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -18268,13 +18250,13 @@
         <v>3523</v>
       </c>
       <c r="M50" t="s">
-        <v>3947</v>
+        <v>3941</v>
       </c>
       <c r="N50" t="s">
-        <v>4366</v>
+        <v>4360</v>
       </c>
       <c r="O50" t="s">
-        <v>4784</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -18315,13 +18297,13 @@
         <v>3524</v>
       </c>
       <c r="M51" t="s">
-        <v>3948</v>
+        <v>3942</v>
       </c>
       <c r="N51" t="s">
-        <v>4367</v>
+        <v>4361</v>
       </c>
       <c r="O51" t="s">
-        <v>4785</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -18362,13 +18344,13 @@
         <v>3525</v>
       </c>
       <c r="M52" t="s">
-        <v>3949</v>
+        <v>3943</v>
       </c>
       <c r="N52" t="s">
-        <v>4368</v>
+        <v>4362</v>
       </c>
       <c r="O52" t="s">
-        <v>4786</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -18409,13 +18391,13 @@
         <v>3526</v>
       </c>
       <c r="M53" t="s">
-        <v>3950</v>
+        <v>3944</v>
       </c>
       <c r="N53" t="s">
-        <v>4369</v>
+        <v>4363</v>
       </c>
       <c r="O53" t="s">
-        <v>4787</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -18456,13 +18438,13 @@
         <v>3527</v>
       </c>
       <c r="M54" t="s">
-        <v>3951</v>
+        <v>3945</v>
       </c>
       <c r="N54" t="s">
-        <v>4370</v>
+        <v>4364</v>
       </c>
       <c r="O54" t="s">
-        <v>4788</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -18503,13 +18485,13 @@
         <v>3528</v>
       </c>
       <c r="M55" t="s">
-        <v>3952</v>
+        <v>3946</v>
       </c>
       <c r="N55" t="s">
-        <v>4371</v>
+        <v>4365</v>
       </c>
       <c r="O55" t="s">
-        <v>4789</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -18550,13 +18532,13 @@
         <v>3529</v>
       </c>
       <c r="M56" t="s">
-        <v>3953</v>
+        <v>3947</v>
       </c>
       <c r="N56" t="s">
-        <v>4372</v>
+        <v>4366</v>
       </c>
       <c r="O56" t="s">
-        <v>4790</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -18597,13 +18579,13 @@
         <v>3530</v>
       </c>
       <c r="M57" t="s">
-        <v>3954</v>
+        <v>3948</v>
       </c>
       <c r="N57" t="s">
-        <v>4373</v>
+        <v>4367</v>
       </c>
       <c r="O57" t="s">
-        <v>4791</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -18644,13 +18626,13 @@
         <v>3531</v>
       </c>
       <c r="M58" t="s">
-        <v>3955</v>
+        <v>3949</v>
       </c>
       <c r="N58" t="s">
-        <v>4374</v>
+        <v>4368</v>
       </c>
       <c r="O58" t="s">
-        <v>4792</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -18691,13 +18673,13 @@
         <v>3532</v>
       </c>
       <c r="M59" t="s">
-        <v>3956</v>
+        <v>3950</v>
       </c>
       <c r="N59" t="s">
-        <v>4375</v>
+        <v>4369</v>
       </c>
       <c r="O59" t="s">
-        <v>4793</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -18738,13 +18720,13 @@
         <v>3533</v>
       </c>
       <c r="M60" t="s">
-        <v>3957</v>
+        <v>3951</v>
       </c>
       <c r="N60" t="s">
-        <v>4376</v>
+        <v>4370</v>
       </c>
       <c r="O60" t="s">
-        <v>4794</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -18785,13 +18767,13 @@
         <v>3534</v>
       </c>
       <c r="M61" t="s">
-        <v>3958</v>
+        <v>3952</v>
       </c>
       <c r="N61" t="s">
-        <v>4377</v>
+        <v>4371</v>
       </c>
       <c r="O61" t="s">
-        <v>4795</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -18832,13 +18814,13 @@
         <v>3535</v>
       </c>
       <c r="M62" t="s">
-        <v>3959</v>
+        <v>3953</v>
       </c>
       <c r="N62" t="s">
-        <v>4378</v>
+        <v>4372</v>
       </c>
       <c r="O62" t="s">
-        <v>4796</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -18879,13 +18861,13 @@
         <v>3536</v>
       </c>
       <c r="M63" t="s">
-        <v>3960</v>
+        <v>3954</v>
       </c>
       <c r="N63" t="s">
-        <v>4379</v>
+        <v>4373</v>
       </c>
       <c r="O63" t="s">
-        <v>4797</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -18926,13 +18908,13 @@
         <v>3537</v>
       </c>
       <c r="M64" t="s">
-        <v>3961</v>
+        <v>3955</v>
       </c>
       <c r="N64" t="s">
-        <v>4380</v>
+        <v>4374</v>
       </c>
       <c r="O64" t="s">
-        <v>4798</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -18973,13 +18955,13 @@
         <v>3538</v>
       </c>
       <c r="M65" t="s">
-        <v>3962</v>
+        <v>3956</v>
       </c>
       <c r="N65" t="s">
-        <v>4381</v>
+        <v>4375</v>
       </c>
       <c r="O65" t="s">
-        <v>4799</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -19020,13 +19002,13 @@
         <v>3539</v>
       </c>
       <c r="M66" t="s">
-        <v>3963</v>
+        <v>3957</v>
       </c>
       <c r="N66" t="s">
-        <v>4382</v>
+        <v>4376</v>
       </c>
       <c r="O66" t="s">
-        <v>4800</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -19067,13 +19049,13 @@
         <v>3540</v>
       </c>
       <c r="M67" t="s">
-        <v>3964</v>
+        <v>3958</v>
       </c>
       <c r="N67" t="s">
-        <v>4383</v>
+        <v>4377</v>
       </c>
       <c r="O67" t="s">
-        <v>4801</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -19114,13 +19096,13 @@
         <v>3541</v>
       </c>
       <c r="M68" t="s">
-        <v>3965</v>
+        <v>3959</v>
       </c>
       <c r="N68" t="s">
-        <v>4384</v>
+        <v>4378</v>
       </c>
       <c r="O68" t="s">
-        <v>4802</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -19161,13 +19143,13 @@
         <v>3542</v>
       </c>
       <c r="M69" t="s">
-        <v>3966</v>
+        <v>3960</v>
       </c>
       <c r="N69" t="s">
-        <v>4385</v>
+        <v>4379</v>
       </c>
       <c r="O69" t="s">
-        <v>4803</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -19208,13 +19190,13 @@
         <v>3543</v>
       </c>
       <c r="M70" t="s">
-        <v>3967</v>
+        <v>3961</v>
       </c>
       <c r="N70" t="s">
-        <v>4386</v>
+        <v>4380</v>
       </c>
       <c r="O70" t="s">
-        <v>4804</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -19255,13 +19237,13 @@
         <v>3544</v>
       </c>
       <c r="M71" t="s">
-        <v>3968</v>
+        <v>3962</v>
       </c>
       <c r="N71" t="s">
-        <v>4387</v>
+        <v>4381</v>
       </c>
       <c r="O71" t="s">
-        <v>4805</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -19302,13 +19284,13 @@
         <v>3545</v>
       </c>
       <c r="M72" t="s">
-        <v>3969</v>
+        <v>3963</v>
       </c>
       <c r="N72" t="s">
-        <v>4388</v>
+        <v>4382</v>
       </c>
       <c r="O72" t="s">
-        <v>4806</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -19349,13 +19331,13 @@
         <v>3546</v>
       </c>
       <c r="M73" t="s">
-        <v>3970</v>
+        <v>3964</v>
       </c>
       <c r="N73" t="s">
-        <v>4389</v>
+        <v>4383</v>
       </c>
       <c r="O73" t="s">
-        <v>4807</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -19396,13 +19378,13 @@
         <v>3547</v>
       </c>
       <c r="M74" t="s">
-        <v>3971</v>
+        <v>3965</v>
       </c>
       <c r="N74" t="s">
-        <v>4390</v>
+        <v>4384</v>
       </c>
       <c r="O74" t="s">
-        <v>4808</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -19443,10 +19425,10 @@
         <v>3548</v>
       </c>
       <c r="M75" t="s">
-        <v>3972</v>
+        <v>3966</v>
       </c>
       <c r="N75" t="s">
-        <v>4391</v>
+        <v>4385</v>
       </c>
       <c r="O75" t="s">
         <v>1986</v>
@@ -19490,13 +19472,13 @@
         <v>3549</v>
       </c>
       <c r="M76" t="s">
-        <v>3973</v>
+        <v>3967</v>
       </c>
       <c r="N76" t="s">
-        <v>4392</v>
+        <v>4386</v>
       </c>
       <c r="O76" t="s">
-        <v>4809</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -19537,13 +19519,13 @@
         <v>3550</v>
       </c>
       <c r="M77" t="s">
-        <v>3974</v>
+        <v>3968</v>
       </c>
       <c r="N77" t="s">
-        <v>4393</v>
+        <v>4387</v>
       </c>
       <c r="O77" t="s">
-        <v>4810</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -19584,13 +19566,13 @@
         <v>3551</v>
       </c>
       <c r="M78" t="s">
-        <v>3975</v>
+        <v>3969</v>
       </c>
       <c r="N78" t="s">
-        <v>4394</v>
+        <v>4388</v>
       </c>
       <c r="O78" t="s">
-        <v>4811</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -19631,13 +19613,13 @@
         <v>3552</v>
       </c>
       <c r="M79" t="s">
-        <v>3976</v>
+        <v>3970</v>
       </c>
       <c r="N79" t="s">
-        <v>4395</v>
+        <v>4389</v>
       </c>
       <c r="O79" t="s">
-        <v>4812</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -19678,13 +19660,13 @@
         <v>3553</v>
       </c>
       <c r="M80" t="s">
-        <v>3977</v>
+        <v>3971</v>
       </c>
       <c r="N80" t="s">
-        <v>4396</v>
+        <v>4390</v>
       </c>
       <c r="O80" t="s">
-        <v>4813</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -19725,13 +19707,13 @@
         <v>3554</v>
       </c>
       <c r="M81" t="s">
-        <v>3978</v>
+        <v>3972</v>
       </c>
       <c r="N81" t="s">
-        <v>4397</v>
+        <v>4391</v>
       </c>
       <c r="O81" t="s">
-        <v>4814</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -19772,13 +19754,13 @@
         <v>3555</v>
       </c>
       <c r="M82" t="s">
-        <v>3979</v>
+        <v>3973</v>
       </c>
       <c r="N82" t="s">
-        <v>4398</v>
+        <v>4392</v>
       </c>
       <c r="O82" t="s">
-        <v>4815</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -19819,13 +19801,13 @@
         <v>3556</v>
       </c>
       <c r="M83" t="s">
-        <v>3980</v>
+        <v>3974</v>
       </c>
       <c r="N83" t="s">
-        <v>4399</v>
+        <v>4393</v>
       </c>
       <c r="O83" t="s">
-        <v>4816</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -19866,13 +19848,13 @@
         <v>3557</v>
       </c>
       <c r="M84" t="s">
-        <v>3981</v>
+        <v>3975</v>
       </c>
       <c r="N84" t="s">
-        <v>4400</v>
+        <v>4394</v>
       </c>
       <c r="O84" t="s">
-        <v>4817</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -19913,13 +19895,13 @@
         <v>3558</v>
       </c>
       <c r="M85" t="s">
-        <v>3982</v>
+        <v>3976</v>
       </c>
       <c r="N85" t="s">
-        <v>4401</v>
+        <v>4395</v>
       </c>
       <c r="O85" t="s">
-        <v>4818</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -19960,13 +19942,13 @@
         <v>3559</v>
       </c>
       <c r="M86" t="s">
-        <v>3983</v>
+        <v>3977</v>
       </c>
       <c r="N86" t="s">
-        <v>4402</v>
+        <v>4396</v>
       </c>
       <c r="O86" t="s">
-        <v>4819</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -19980,22 +19962,22 @@
         <v>166</v>
       </c>
       <c r="D87" t="s">
-        <v>5165</v>
+        <v>5159</v>
       </c>
       <c r="E87" t="s">
-        <v>5165</v>
+        <v>5159</v>
       </c>
       <c r="F87" t="s">
-        <v>5165</v>
+        <v>5159</v>
       </c>
       <c r="G87" t="s">
-        <v>5165</v>
+        <v>5159</v>
       </c>
       <c r="H87" t="s">
-        <v>5165</v>
+        <v>5159</v>
       </c>
       <c r="I87" t="s">
-        <v>5165</v>
+        <v>5159</v>
       </c>
       <c r="J87" t="s">
         <v>2729</v>
@@ -20007,13 +19989,13 @@
         <v>3560</v>
       </c>
       <c r="M87" t="s">
-        <v>3984</v>
+        <v>3978</v>
       </c>
       <c r="N87" t="s">
-        <v>4403</v>
+        <v>4397</v>
       </c>
       <c r="O87" t="s">
-        <v>4820</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -20054,13 +20036,13 @@
         <v>3561</v>
       </c>
       <c r="M88" t="s">
-        <v>3985</v>
+        <v>3979</v>
       </c>
       <c r="N88" t="s">
-        <v>4404</v>
+        <v>4398</v>
       </c>
       <c r="O88" t="s">
-        <v>4821</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -20101,13 +20083,13 @@
         <v>3562</v>
       </c>
       <c r="M89" t="s">
-        <v>3986</v>
+        <v>3980</v>
       </c>
       <c r="N89" t="s">
-        <v>4405</v>
+        <v>4399</v>
       </c>
       <c r="O89" t="s">
-        <v>4822</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -20148,13 +20130,13 @@
         <v>3563</v>
       </c>
       <c r="M90" t="s">
-        <v>3987</v>
+        <v>3981</v>
       </c>
       <c r="N90" t="s">
-        <v>4406</v>
+        <v>4400</v>
       </c>
       <c r="O90" t="s">
-        <v>4823</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -20195,13 +20177,13 @@
         <v>3564</v>
       </c>
       <c r="M91" t="s">
-        <v>3988</v>
+        <v>3982</v>
       </c>
       <c r="N91" t="s">
-        <v>4407</v>
+        <v>4401</v>
       </c>
       <c r="O91" t="s">
-        <v>4824</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -20242,13 +20224,13 @@
         <v>3565</v>
       </c>
       <c r="M92" t="s">
-        <v>3989</v>
+        <v>3983</v>
       </c>
       <c r="N92" t="s">
-        <v>4408</v>
+        <v>4402</v>
       </c>
       <c r="O92" t="s">
-        <v>4825</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -20289,13 +20271,13 @@
         <v>3566</v>
       </c>
       <c r="M93" t="s">
-        <v>3990</v>
+        <v>3984</v>
       </c>
       <c r="N93" t="s">
-        <v>4409</v>
+        <v>4403</v>
       </c>
       <c r="O93" t="s">
-        <v>4826</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -20336,13 +20318,13 @@
         <v>3567</v>
       </c>
       <c r="M94" t="s">
-        <v>3991</v>
+        <v>3985</v>
       </c>
       <c r="N94" t="s">
-        <v>4410</v>
+        <v>4404</v>
       </c>
       <c r="O94" t="s">
-        <v>4827</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -20383,13 +20365,13 @@
         <v>3568</v>
       </c>
       <c r="M95" t="s">
-        <v>3992</v>
+        <v>3986</v>
       </c>
       <c r="N95" t="s">
-        <v>4411</v>
+        <v>4405</v>
       </c>
       <c r="O95" t="s">
-        <v>4828</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -20430,13 +20412,13 @@
         <v>3569</v>
       </c>
       <c r="M96" t="s">
-        <v>3993</v>
+        <v>3987</v>
       </c>
       <c r="N96" t="s">
-        <v>4412</v>
+        <v>4406</v>
       </c>
       <c r="O96" t="s">
-        <v>4829</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -20477,13 +20459,13 @@
         <v>3570</v>
       </c>
       <c r="M97" t="s">
-        <v>3994</v>
+        <v>3988</v>
       </c>
       <c r="N97" t="s">
-        <v>4413</v>
+        <v>4407</v>
       </c>
       <c r="O97" t="s">
-        <v>4830</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -20524,13 +20506,13 @@
         <v>3571</v>
       </c>
       <c r="M98" t="s">
-        <v>3995</v>
+        <v>3989</v>
       </c>
       <c r="N98" t="s">
-        <v>4414</v>
+        <v>4408</v>
       </c>
       <c r="O98" t="s">
-        <v>4831</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -20571,13 +20553,13 @@
         <v>3572</v>
       </c>
       <c r="M99" t="s">
-        <v>3996</v>
+        <v>3990</v>
       </c>
       <c r="N99" t="s">
-        <v>4415</v>
+        <v>4409</v>
       </c>
       <c r="O99" t="s">
-        <v>4832</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -20618,13 +20600,13 @@
         <v>3573</v>
       </c>
       <c r="M100" t="s">
-        <v>3997</v>
+        <v>3991</v>
       </c>
       <c r="N100" t="s">
-        <v>4416</v>
+        <v>4410</v>
       </c>
       <c r="O100" t="s">
-        <v>4833</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -20665,13 +20647,13 @@
         <v>3574</v>
       </c>
       <c r="M101" t="s">
-        <v>3998</v>
+        <v>3992</v>
       </c>
       <c r="N101" t="s">
-        <v>4417</v>
+        <v>4411</v>
       </c>
       <c r="O101" t="s">
-        <v>4834</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -20715,10 +20697,10 @@
         <v>1160</v>
       </c>
       <c r="N102" t="s">
-        <v>4418</v>
+        <v>4412</v>
       </c>
       <c r="O102" t="s">
-        <v>4835</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -20759,13 +20741,13 @@
         <v>3576</v>
       </c>
       <c r="M103" t="s">
-        <v>3999</v>
+        <v>3993</v>
       </c>
       <c r="N103" t="s">
-        <v>4419</v>
+        <v>4413</v>
       </c>
       <c r="O103" t="s">
-        <v>4836</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -20806,13 +20788,13 @@
         <v>3577</v>
       </c>
       <c r="M104" t="s">
-        <v>4000</v>
+        <v>3994</v>
       </c>
       <c r="N104" t="s">
-        <v>4420</v>
+        <v>4414</v>
       </c>
       <c r="O104" t="s">
-        <v>4837</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -20853,13 +20835,13 @@
         <v>3578</v>
       </c>
       <c r="M105" t="s">
-        <v>4001</v>
+        <v>3995</v>
       </c>
       <c r="N105" t="s">
-        <v>4241</v>
+        <v>4235</v>
       </c>
       <c r="O105" t="s">
-        <v>4838</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -20900,13 +20882,13 @@
         <v>3579</v>
       </c>
       <c r="M106" t="s">
-        <v>4002</v>
+        <v>3996</v>
       </c>
       <c r="N106" t="s">
-        <v>4421</v>
+        <v>4415</v>
       </c>
       <c r="O106" t="s">
-        <v>4839</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -20947,13 +20929,13 @@
         <v>3580</v>
       </c>
       <c r="M107" t="s">
-        <v>4003</v>
+        <v>3997</v>
       </c>
       <c r="N107" t="s">
-        <v>4422</v>
+        <v>4416</v>
       </c>
       <c r="O107" t="s">
-        <v>4840</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -20994,13 +20976,13 @@
         <v>3581</v>
       </c>
       <c r="M108" t="s">
-        <v>4004</v>
+        <v>3998</v>
       </c>
       <c r="N108" t="s">
-        <v>4423</v>
+        <v>4417</v>
       </c>
       <c r="O108" t="s">
-        <v>4841</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -21041,13 +21023,13 @@
         <v>3582</v>
       </c>
       <c r="M109" t="s">
-        <v>4005</v>
+        <v>3999</v>
       </c>
       <c r="N109" t="s">
-        <v>4424</v>
+        <v>4418</v>
       </c>
       <c r="O109" t="s">
-        <v>4842</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -21088,13 +21070,13 @@
         <v>3583</v>
       </c>
       <c r="M110" t="s">
-        <v>4006</v>
+        <v>4000</v>
       </c>
       <c r="N110" t="s">
-        <v>4425</v>
+        <v>4419</v>
       </c>
       <c r="O110" t="s">
-        <v>4843</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -21138,10 +21120,10 @@
         <v>2401</v>
       </c>
       <c r="N111" t="s">
-        <v>4426</v>
+        <v>4420</v>
       </c>
       <c r="O111" t="s">
-        <v>4844</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -21182,13 +21164,13 @@
         <v>3585</v>
       </c>
       <c r="M112" t="s">
-        <v>4007</v>
+        <v>4001</v>
       </c>
       <c r="N112" t="s">
-        <v>4427</v>
+        <v>4421</v>
       </c>
       <c r="O112" t="s">
-        <v>4845</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -21229,13 +21211,13 @@
         <v>3586</v>
       </c>
       <c r="M113" t="s">
-        <v>4008</v>
+        <v>4002</v>
       </c>
       <c r="N113" t="s">
-        <v>4428</v>
+        <v>4422</v>
       </c>
       <c r="O113" t="s">
-        <v>4846</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -21276,13 +21258,13 @@
         <v>3587</v>
       </c>
       <c r="M114" t="s">
-        <v>4009</v>
+        <v>4003</v>
       </c>
       <c r="N114" t="s">
-        <v>4429</v>
+        <v>4423</v>
       </c>
       <c r="O114" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -21323,13 +21305,13 @@
         <v>3588</v>
       </c>
       <c r="M115" t="s">
-        <v>4010</v>
+        <v>4004</v>
       </c>
       <c r="N115" t="s">
-        <v>4430</v>
+        <v>4424</v>
       </c>
       <c r="O115" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -21370,13 +21352,13 @@
         <v>3589</v>
       </c>
       <c r="M116" t="s">
-        <v>4011</v>
+        <v>4005</v>
       </c>
       <c r="N116" t="s">
-        <v>4431</v>
+        <v>4425</v>
       </c>
       <c r="O116" t="s">
-        <v>4849</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -21417,13 +21399,13 @@
         <v>3590</v>
       </c>
       <c r="M117" t="s">
-        <v>4012</v>
+        <v>4006</v>
       </c>
       <c r="N117" t="s">
-        <v>4432</v>
+        <v>4426</v>
       </c>
       <c r="O117" t="s">
-        <v>4850</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -21464,13 +21446,13 @@
         <v>3591</v>
       </c>
       <c r="M118" t="s">
-        <v>4013</v>
+        <v>4007</v>
       </c>
       <c r="N118" t="s">
-        <v>4433</v>
+        <v>4427</v>
       </c>
       <c r="O118" t="s">
-        <v>4851</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -21511,13 +21493,13 @@
         <v>3592</v>
       </c>
       <c r="M119" t="s">
-        <v>4014</v>
+        <v>4008</v>
       </c>
       <c r="N119" t="s">
-        <v>4434</v>
+        <v>4428</v>
       </c>
       <c r="O119" t="s">
-        <v>4852</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -21558,13 +21540,13 @@
         <v>3593</v>
       </c>
       <c r="M120" t="s">
-        <v>4015</v>
+        <v>4009</v>
       </c>
       <c r="N120" t="s">
-        <v>4435</v>
+        <v>4429</v>
       </c>
       <c r="O120" t="s">
-        <v>4853</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -21605,13 +21587,13 @@
         <v>3594</v>
       </c>
       <c r="M121" t="s">
-        <v>4016</v>
+        <v>4010</v>
       </c>
       <c r="N121" t="s">
-        <v>4436</v>
+        <v>4430</v>
       </c>
       <c r="O121" t="s">
-        <v>4854</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -21652,13 +21634,13 @@
         <v>3595</v>
       </c>
       <c r="M122" t="s">
-        <v>4017</v>
+        <v>4011</v>
       </c>
       <c r="N122" t="s">
-        <v>4437</v>
+        <v>4431</v>
       </c>
       <c r="O122" t="s">
-        <v>4855</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -21699,13 +21681,13 @@
         <v>3596</v>
       </c>
       <c r="M123" t="s">
-        <v>4018</v>
+        <v>4012</v>
       </c>
       <c r="N123" t="s">
-        <v>4438</v>
+        <v>4432</v>
       </c>
       <c r="O123" t="s">
-        <v>4856</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -21746,13 +21728,13 @@
         <v>3597</v>
       </c>
       <c r="M124" t="s">
-        <v>4019</v>
+        <v>4013</v>
       </c>
       <c r="N124" t="s">
-        <v>4439</v>
+        <v>4433</v>
       </c>
       <c r="O124" t="s">
-        <v>4857</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -21793,13 +21775,13 @@
         <v>3598</v>
       </c>
       <c r="M125" t="s">
-        <v>4020</v>
+        <v>4014</v>
       </c>
       <c r="N125" t="s">
-        <v>4440</v>
+        <v>4434</v>
       </c>
       <c r="O125" t="s">
-        <v>4858</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -21840,13 +21822,13 @@
         <v>3599</v>
       </c>
       <c r="M126" t="s">
-        <v>4021</v>
+        <v>4015</v>
       </c>
       <c r="N126" t="s">
-        <v>4441</v>
+        <v>4435</v>
       </c>
       <c r="O126" t="s">
-        <v>4859</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -21887,13 +21869,13 @@
         <v>3600</v>
       </c>
       <c r="M127" t="s">
-        <v>4022</v>
+        <v>4016</v>
       </c>
       <c r="N127" t="s">
-        <v>4442</v>
+        <v>4436</v>
       </c>
       <c r="O127" t="s">
-        <v>4860</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -21934,13 +21916,13 @@
         <v>3601</v>
       </c>
       <c r="M128" t="s">
-        <v>4023</v>
+        <v>4017</v>
       </c>
       <c r="N128" t="s">
-        <v>4443</v>
+        <v>4437</v>
       </c>
       <c r="O128" t="s">
-        <v>4861</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
@@ -21981,13 +21963,13 @@
         <v>3602</v>
       </c>
       <c r="M129" t="s">
-        <v>4024</v>
+        <v>4018</v>
       </c>
       <c r="N129" t="s">
-        <v>4444</v>
+        <v>4438</v>
       </c>
       <c r="O129" t="s">
-        <v>4862</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -22028,13 +22010,13 @@
         <v>3603</v>
       </c>
       <c r="M130" t="s">
-        <v>4025</v>
+        <v>4019</v>
       </c>
       <c r="N130" t="s">
-        <v>4445</v>
+        <v>4439</v>
       </c>
       <c r="O130" t="s">
-        <v>4863</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
@@ -22075,13 +22057,13 @@
         <v>3604</v>
       </c>
       <c r="M131" t="s">
-        <v>4026</v>
+        <v>4020</v>
       </c>
       <c r="N131" t="s">
-        <v>4446</v>
+        <v>4440</v>
       </c>
       <c r="O131" t="s">
-        <v>4864</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
@@ -22122,13 +22104,13 @@
         <v>3605</v>
       </c>
       <c r="M132" t="s">
-        <v>4027</v>
+        <v>4021</v>
       </c>
       <c r="N132" t="s">
-        <v>4447</v>
+        <v>4441</v>
       </c>
       <c r="O132" t="s">
-        <v>4865</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
@@ -22169,13 +22151,13 @@
         <v>3606</v>
       </c>
       <c r="M133" t="s">
-        <v>4028</v>
+        <v>4022</v>
       </c>
       <c r="N133" t="s">
-        <v>4448</v>
+        <v>4442</v>
       </c>
       <c r="O133" t="s">
-        <v>4866</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
@@ -22216,13 +22198,13 @@
         <v>3607</v>
       </c>
       <c r="M134" t="s">
-        <v>4029</v>
+        <v>4023</v>
       </c>
       <c r="N134" t="s">
-        <v>4449</v>
+        <v>4443</v>
       </c>
       <c r="O134" t="s">
-        <v>4867</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -22263,13 +22245,13 @@
         <v>3608</v>
       </c>
       <c r="M135" t="s">
-        <v>4030</v>
+        <v>4024</v>
       </c>
       <c r="N135" t="s">
-        <v>4450</v>
+        <v>4444</v>
       </c>
       <c r="O135" t="s">
-        <v>4868</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
@@ -22310,13 +22292,13 @@
         <v>3609</v>
       </c>
       <c r="M136" t="s">
-        <v>4031</v>
+        <v>4025</v>
       </c>
       <c r="N136" t="s">
-        <v>4451</v>
+        <v>4445</v>
       </c>
       <c r="O136" t="s">
-        <v>4869</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
@@ -22357,13 +22339,13 @@
         <v>3610</v>
       </c>
       <c r="M137" t="s">
-        <v>4032</v>
+        <v>4026</v>
       </c>
       <c r="N137" t="s">
-        <v>4452</v>
+        <v>4446</v>
       </c>
       <c r="O137" t="s">
-        <v>4870</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
@@ -22404,13 +22386,13 @@
         <v>3611</v>
       </c>
       <c r="M138" t="s">
-        <v>4033</v>
+        <v>4027</v>
       </c>
       <c r="N138" t="s">
-        <v>4453</v>
+        <v>4447</v>
       </c>
       <c r="O138" t="s">
-        <v>4871</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
@@ -22451,13 +22433,13 @@
         <v>3612</v>
       </c>
       <c r="M139" t="s">
-        <v>4034</v>
+        <v>4028</v>
       </c>
       <c r="N139" t="s">
-        <v>4454</v>
+        <v>4448</v>
       </c>
       <c r="O139" t="s">
-        <v>4872</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -22498,13 +22480,13 @@
         <v>3613</v>
       </c>
       <c r="M140" t="s">
-        <v>4035</v>
+        <v>4029</v>
       </c>
       <c r="N140" t="s">
-        <v>4455</v>
+        <v>4449</v>
       </c>
       <c r="O140" t="s">
-        <v>4873</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
@@ -22545,13 +22527,13 @@
         <v>3614</v>
       </c>
       <c r="M141" t="s">
-        <v>4036</v>
+        <v>4030</v>
       </c>
       <c r="N141" t="s">
-        <v>4456</v>
+        <v>4450</v>
       </c>
       <c r="O141" t="s">
-        <v>4874</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
@@ -22592,13 +22574,13 @@
         <v>3615</v>
       </c>
       <c r="M142" t="s">
-        <v>4037</v>
+        <v>4031</v>
       </c>
       <c r="N142" t="s">
-        <v>4457</v>
+        <v>4451</v>
       </c>
       <c r="O142" t="s">
-        <v>4875</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
@@ -22639,13 +22621,13 @@
         <v>3616</v>
       </c>
       <c r="M143" t="s">
-        <v>4038</v>
+        <v>4032</v>
       </c>
       <c r="N143" t="s">
-        <v>4458</v>
+        <v>4452</v>
       </c>
       <c r="O143" t="s">
-        <v>4876</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
@@ -22686,13 +22668,13 @@
         <v>3617</v>
       </c>
       <c r="M144" t="s">
-        <v>4039</v>
+        <v>4033</v>
       </c>
       <c r="N144" t="s">
-        <v>4459</v>
+        <v>4453</v>
       </c>
       <c r="O144" t="s">
-        <v>4877</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
@@ -22733,13 +22715,13 @@
         <v>3618</v>
       </c>
       <c r="M145" t="s">
-        <v>4040</v>
+        <v>4034</v>
       </c>
       <c r="N145" t="s">
-        <v>4460</v>
+        <v>4454</v>
       </c>
       <c r="O145" t="s">
-        <v>4878</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
@@ -22780,13 +22762,13 @@
         <v>3619</v>
       </c>
       <c r="M146" t="s">
-        <v>4041</v>
+        <v>4035</v>
       </c>
       <c r="N146" t="s">
-        <v>4461</v>
+        <v>4455</v>
       </c>
       <c r="O146" t="s">
-        <v>4879</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
@@ -22827,13 +22809,13 @@
         <v>3620</v>
       </c>
       <c r="M147" t="s">
-        <v>4042</v>
+        <v>4036</v>
       </c>
       <c r="N147" t="s">
-        <v>4462</v>
+        <v>4456</v>
       </c>
       <c r="O147" t="s">
-        <v>4880</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
@@ -22874,13 +22856,13 @@
         <v>3621</v>
       </c>
       <c r="M148" t="s">
-        <v>4043</v>
+        <v>4037</v>
       </c>
       <c r="N148" t="s">
-        <v>4463</v>
+        <v>4457</v>
       </c>
       <c r="O148" t="s">
-        <v>4881</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
@@ -22921,13 +22903,13 @@
         <v>3622</v>
       </c>
       <c r="M149" t="s">
-        <v>4044</v>
+        <v>4038</v>
       </c>
       <c r="N149" t="s">
-        <v>4464</v>
+        <v>4458</v>
       </c>
       <c r="O149" t="s">
-        <v>4882</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -22968,13 +22950,13 @@
         <v>3623</v>
       </c>
       <c r="M150" t="s">
-        <v>4045</v>
+        <v>4039</v>
       </c>
       <c r="N150" t="s">
         <v>3260</v>
       </c>
       <c r="O150" t="s">
-        <v>4883</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
@@ -23015,13 +22997,13 @@
         <v>3624</v>
       </c>
       <c r="M151" t="s">
-        <v>4046</v>
+        <v>4040</v>
       </c>
       <c r="N151" t="s">
-        <v>4465</v>
+        <v>4459</v>
       </c>
       <c r="O151" t="s">
-        <v>4884</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
@@ -23062,13 +23044,13 @@
         <v>3625</v>
       </c>
       <c r="M152" t="s">
-        <v>4047</v>
+        <v>4041</v>
       </c>
       <c r="N152" t="s">
-        <v>4466</v>
+        <v>4460</v>
       </c>
       <c r="O152" t="s">
-        <v>4885</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
@@ -23109,13 +23091,13 @@
         <v>3626</v>
       </c>
       <c r="M153" t="s">
-        <v>4048</v>
+        <v>4042</v>
       </c>
       <c r="N153" t="s">
-        <v>4467</v>
+        <v>4461</v>
       </c>
       <c r="O153" t="s">
-        <v>4886</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
@@ -23156,13 +23138,13 @@
         <v>3627</v>
       </c>
       <c r="M154" t="s">
-        <v>4049</v>
+        <v>4043</v>
       </c>
       <c r="N154" t="s">
-        <v>4468</v>
+        <v>4462</v>
       </c>
       <c r="O154" t="s">
-        <v>4887</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -23203,13 +23185,13 @@
         <v>3628</v>
       </c>
       <c r="M155" t="s">
-        <v>4050</v>
+        <v>4044</v>
       </c>
       <c r="N155" t="s">
-        <v>4469</v>
+        <v>4463</v>
       </c>
       <c r="O155" t="s">
-        <v>4888</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
@@ -23250,13 +23232,13 @@
         <v>3629</v>
       </c>
       <c r="M156" t="s">
-        <v>4051</v>
+        <v>4045</v>
       </c>
       <c r="N156" t="s">
-        <v>4470</v>
+        <v>4464</v>
       </c>
       <c r="O156" t="s">
-        <v>4889</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
@@ -23297,13 +23279,13 @@
         <v>3630</v>
       </c>
       <c r="M157" t="s">
-        <v>4052</v>
+        <v>4046</v>
       </c>
       <c r="N157" t="s">
-        <v>4471</v>
+        <v>4465</v>
       </c>
       <c r="O157" t="s">
-        <v>4890</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
@@ -23344,13 +23326,13 @@
         <v>3631</v>
       </c>
       <c r="M158" t="s">
-        <v>4053</v>
+        <v>4047</v>
       </c>
       <c r="N158" t="s">
-        <v>4472</v>
+        <v>4466</v>
       </c>
       <c r="O158" t="s">
-        <v>4891</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
@@ -23391,13 +23373,13 @@
         <v>3632</v>
       </c>
       <c r="M159" t="s">
-        <v>4054</v>
+        <v>4048</v>
       </c>
       <c r="N159" t="s">
-        <v>4473</v>
+        <v>4467</v>
       </c>
       <c r="O159" t="s">
-        <v>4892</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
@@ -23438,13 +23420,13 @@
         <v>3633</v>
       </c>
       <c r="M160" t="s">
-        <v>4055</v>
+        <v>4049</v>
       </c>
       <c r="N160" t="s">
-        <v>4474</v>
+        <v>4468</v>
       </c>
       <c r="O160" t="s">
-        <v>4893</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -23485,13 +23467,13 @@
         <v>3634</v>
       </c>
       <c r="M161" t="s">
-        <v>4056</v>
+        <v>4050</v>
       </c>
       <c r="N161" t="s">
-        <v>4475</v>
+        <v>4469</v>
       </c>
       <c r="O161" t="s">
-        <v>4894</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -23532,13 +23514,13 @@
         <v>3635</v>
       </c>
       <c r="M162" t="s">
-        <v>4057</v>
+        <v>4051</v>
       </c>
       <c r="N162" t="s">
-        <v>4476</v>
+        <v>4470</v>
       </c>
       <c r="O162" t="s">
-        <v>4895</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -23579,13 +23561,13 @@
         <v>3636</v>
       </c>
       <c r="M163" t="s">
-        <v>4058</v>
+        <v>4052</v>
       </c>
       <c r="N163" t="s">
-        <v>4477</v>
+        <v>4471</v>
       </c>
       <c r="O163" t="s">
-        <v>4896</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -23626,13 +23608,13 @@
         <v>3637</v>
       </c>
       <c r="M164" t="s">
-        <v>4059</v>
+        <v>4053</v>
       </c>
       <c r="N164" t="s">
-        <v>4478</v>
+        <v>4472</v>
       </c>
       <c r="O164" t="s">
-        <v>4897</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -23673,13 +23655,13 @@
         <v>3638</v>
       </c>
       <c r="M165" t="s">
-        <v>4060</v>
+        <v>4054</v>
       </c>
       <c r="N165" t="s">
-        <v>4479</v>
+        <v>4473</v>
       </c>
       <c r="O165" t="s">
-        <v>4898</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -23720,13 +23702,13 @@
         <v>3639</v>
       </c>
       <c r="M166" t="s">
-        <v>4061</v>
+        <v>4055</v>
       </c>
       <c r="N166" t="s">
-        <v>4480</v>
+        <v>4474</v>
       </c>
       <c r="O166" t="s">
-        <v>4899</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -23767,13 +23749,13 @@
         <v>3640</v>
       </c>
       <c r="M167" t="s">
-        <v>4062</v>
+        <v>4056</v>
       </c>
       <c r="N167" t="s">
-        <v>4481</v>
+        <v>4475</v>
       </c>
       <c r="O167" t="s">
-        <v>4900</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -23814,13 +23796,13 @@
         <v>3641</v>
       </c>
       <c r="M168" t="s">
-        <v>4063</v>
+        <v>4057</v>
       </c>
       <c r="N168" t="s">
         <v>2800</v>
       </c>
       <c r="O168" t="s">
-        <v>4901</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -23861,13 +23843,13 @@
         <v>3642</v>
       </c>
       <c r="M169" t="s">
-        <v>4064</v>
+        <v>4058</v>
       </c>
       <c r="N169" t="s">
-        <v>4482</v>
+        <v>4476</v>
       </c>
       <c r="O169" t="s">
-        <v>4902</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -23908,13 +23890,13 @@
         <v>3643</v>
       </c>
       <c r="M170" t="s">
-        <v>4065</v>
+        <v>4059</v>
       </c>
       <c r="N170" t="s">
-        <v>4483</v>
+        <v>4477</v>
       </c>
       <c r="O170" t="s">
-        <v>4903</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -23955,13 +23937,13 @@
         <v>3644</v>
       </c>
       <c r="M171" t="s">
-        <v>4066</v>
+        <v>4060</v>
       </c>
       <c r="N171" t="s">
-        <v>4484</v>
+        <v>4478</v>
       </c>
       <c r="O171" t="s">
-        <v>4904</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -24002,13 +23984,13 @@
         <v>3645</v>
       </c>
       <c r="M172" t="s">
-        <v>4067</v>
+        <v>4061</v>
       </c>
       <c r="N172" t="s">
-        <v>4485</v>
+        <v>4479</v>
       </c>
       <c r="O172" t="s">
-        <v>4905</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -24049,13 +24031,13 @@
         <v>3646</v>
       </c>
       <c r="M173" t="s">
-        <v>4068</v>
+        <v>4062</v>
       </c>
       <c r="N173" t="s">
-        <v>4486</v>
+        <v>4480</v>
       </c>
       <c r="O173" t="s">
-        <v>4906</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
@@ -24096,13 +24078,13 @@
         <v>3647</v>
       </c>
       <c r="M174" t="s">
-        <v>4069</v>
+        <v>4063</v>
       </c>
       <c r="N174" t="s">
-        <v>4487</v>
+        <v>4481</v>
       </c>
       <c r="O174" t="s">
-        <v>4907</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -24143,13 +24125,13 @@
         <v>3648</v>
       </c>
       <c r="M175" t="s">
-        <v>4070</v>
+        <v>4064</v>
       </c>
       <c r="N175" t="s">
-        <v>4488</v>
+        <v>4482</v>
       </c>
       <c r="O175" t="s">
-        <v>4908</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -24190,13 +24172,13 @@
         <v>3649</v>
       </c>
       <c r="M176" t="s">
-        <v>4071</v>
+        <v>4065</v>
       </c>
       <c r="N176" t="s">
-        <v>4489</v>
+        <v>4483</v>
       </c>
       <c r="O176" t="s">
-        <v>4909</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
@@ -24237,13 +24219,13 @@
         <v>3650</v>
       </c>
       <c r="M177" t="s">
-        <v>4072</v>
+        <v>4066</v>
       </c>
       <c r="N177" t="s">
-        <v>4490</v>
+        <v>4484</v>
       </c>
       <c r="O177" t="s">
-        <v>4910</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
@@ -24284,13 +24266,13 @@
         <v>3651</v>
       </c>
       <c r="M178" t="s">
-        <v>4073</v>
+        <v>4067</v>
       </c>
       <c r="N178" t="s">
-        <v>4491</v>
+        <v>4485</v>
       </c>
       <c r="O178" t="s">
-        <v>4911</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
@@ -24331,13 +24313,13 @@
         <v>3652</v>
       </c>
       <c r="M179" t="s">
-        <v>4074</v>
+        <v>4068</v>
       </c>
       <c r="N179" t="s">
-        <v>4492</v>
+        <v>4486</v>
       </c>
       <c r="O179" t="s">
-        <v>4912</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -24378,13 +24360,13 @@
         <v>3653</v>
       </c>
       <c r="M180" t="s">
-        <v>4075</v>
+        <v>4069</v>
       </c>
       <c r="N180" t="s">
-        <v>4493</v>
+        <v>4487</v>
       </c>
       <c r="O180" t="s">
-        <v>4913</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
@@ -24425,13 +24407,13 @@
         <v>3654</v>
       </c>
       <c r="M181" t="s">
-        <v>4076</v>
+        <v>4070</v>
       </c>
       <c r="N181" t="s">
-        <v>4494</v>
+        <v>4488</v>
       </c>
       <c r="O181" t="s">
-        <v>4914</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
@@ -24472,13 +24454,13 @@
         <v>3655</v>
       </c>
       <c r="M182" t="s">
-        <v>4077</v>
+        <v>4071</v>
       </c>
       <c r="N182" t="s">
-        <v>4495</v>
+        <v>4489</v>
       </c>
       <c r="O182" t="s">
-        <v>4915</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
@@ -24519,13 +24501,13 @@
         <v>3656</v>
       </c>
       <c r="M183" t="s">
-        <v>4078</v>
+        <v>4072</v>
       </c>
       <c r="N183" t="s">
-        <v>4496</v>
+        <v>4490</v>
       </c>
       <c r="O183" t="s">
-        <v>4916</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
@@ -24566,13 +24548,13 @@
         <v>3657</v>
       </c>
       <c r="M184" t="s">
-        <v>4079</v>
+        <v>4073</v>
       </c>
       <c r="N184" t="s">
-        <v>4497</v>
+        <v>4491</v>
       </c>
       <c r="O184" t="s">
-        <v>4917</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
@@ -24613,13 +24595,13 @@
         <v>3658</v>
       </c>
       <c r="M185" t="s">
-        <v>4080</v>
+        <v>4074</v>
       </c>
       <c r="N185" t="s">
-        <v>4498</v>
+        <v>4492</v>
       </c>
       <c r="O185" t="s">
-        <v>4918</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
@@ -24660,13 +24642,13 @@
         <v>3659</v>
       </c>
       <c r="M186" t="s">
-        <v>4081</v>
+        <v>4075</v>
       </c>
       <c r="N186" t="s">
-        <v>4499</v>
+        <v>4493</v>
       </c>
       <c r="O186" t="s">
-        <v>4919</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
@@ -24707,13 +24689,13 @@
         <v>3660</v>
       </c>
       <c r="M187" t="s">
-        <v>4082</v>
+        <v>4076</v>
       </c>
       <c r="N187" t="s">
-        <v>4500</v>
+        <v>4494</v>
       </c>
       <c r="O187" t="s">
-        <v>4920</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
@@ -24754,13 +24736,13 @@
         <v>3661</v>
       </c>
       <c r="M188" t="s">
-        <v>4083</v>
+        <v>4077</v>
       </c>
       <c r="N188" t="s">
-        <v>4501</v>
+        <v>4495</v>
       </c>
       <c r="O188" t="s">
-        <v>4921</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
@@ -24801,13 +24783,13 @@
         <v>3662</v>
       </c>
       <c r="M189" t="s">
-        <v>4084</v>
+        <v>4078</v>
       </c>
       <c r="N189" t="s">
-        <v>4502</v>
+        <v>4496</v>
       </c>
       <c r="O189" t="s">
-        <v>4922</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
@@ -24848,13 +24830,13 @@
         <v>3663</v>
       </c>
       <c r="M190" t="s">
-        <v>4085</v>
+        <v>4079</v>
       </c>
       <c r="N190" t="s">
-        <v>4503</v>
+        <v>4497</v>
       </c>
       <c r="O190" t="s">
-        <v>4923</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
@@ -24895,13 +24877,13 @@
         <v>3664</v>
       </c>
       <c r="M191" t="s">
-        <v>4086</v>
+        <v>4080</v>
       </c>
       <c r="N191" t="s">
-        <v>4504</v>
+        <v>4498</v>
       </c>
       <c r="O191" t="s">
-        <v>4924</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
@@ -24942,13 +24924,13 @@
         <v>3665</v>
       </c>
       <c r="M192" t="s">
-        <v>4087</v>
+        <v>4081</v>
       </c>
       <c r="N192" t="s">
-        <v>4505</v>
+        <v>4499</v>
       </c>
       <c r="O192" t="s">
-        <v>4925</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
@@ -24989,13 +24971,13 @@
         <v>3666</v>
       </c>
       <c r="M193" t="s">
-        <v>4088</v>
+        <v>4082</v>
       </c>
       <c r="N193" t="s">
-        <v>4506</v>
+        <v>4500</v>
       </c>
       <c r="O193" t="s">
-        <v>4926</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
@@ -25036,13 +25018,13 @@
         <v>3667</v>
       </c>
       <c r="M194" t="s">
-        <v>4089</v>
+        <v>4083</v>
       </c>
       <c r="N194" t="s">
-        <v>4507</v>
+        <v>4501</v>
       </c>
       <c r="O194" t="s">
-        <v>4927</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
@@ -25083,13 +25065,13 @@
         <v>3668</v>
       </c>
       <c r="M195" t="s">
-        <v>4090</v>
+        <v>4084</v>
       </c>
       <c r="N195" t="s">
-        <v>4508</v>
+        <v>4502</v>
       </c>
       <c r="O195" t="s">
-        <v>4928</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
@@ -25130,13 +25112,13 @@
         <v>3669</v>
       </c>
       <c r="M196" t="s">
-        <v>4091</v>
+        <v>4085</v>
       </c>
       <c r="N196" t="s">
-        <v>4509</v>
+        <v>4503</v>
       </c>
       <c r="O196" t="s">
-        <v>4929</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
@@ -25177,13 +25159,13 @@
         <v>3670</v>
       </c>
       <c r="M197" t="s">
-        <v>4092</v>
+        <v>4086</v>
       </c>
       <c r="N197" t="s">
-        <v>4510</v>
+        <v>4504</v>
       </c>
       <c r="O197" t="s">
-        <v>4930</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
@@ -25224,13 +25206,13 @@
         <v>3671</v>
       </c>
       <c r="M198" t="s">
-        <v>4093</v>
+        <v>4087</v>
       </c>
       <c r="N198" t="s">
-        <v>4511</v>
+        <v>4505</v>
       </c>
       <c r="O198" t="s">
-        <v>4931</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
@@ -25271,13 +25253,13 @@
         <v>3672</v>
       </c>
       <c r="M199" t="s">
-        <v>4094</v>
+        <v>4088</v>
       </c>
       <c r="N199" t="s">
-        <v>4512</v>
+        <v>4506</v>
       </c>
       <c r="O199" t="s">
-        <v>4932</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
@@ -25318,13 +25300,13 @@
         <v>3673</v>
       </c>
       <c r="M200" t="s">
-        <v>4095</v>
+        <v>4089</v>
       </c>
       <c r="N200" t="s">
-        <v>4513</v>
+        <v>4507</v>
       </c>
       <c r="O200" t="s">
-        <v>4933</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
@@ -25365,13 +25347,13 @@
         <v>3674</v>
       </c>
       <c r="M201" t="s">
-        <v>4096</v>
+        <v>4090</v>
       </c>
       <c r="N201" t="s">
-        <v>4514</v>
+        <v>4508</v>
       </c>
       <c r="O201" t="s">
-        <v>4934</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
@@ -25412,13 +25394,13 @@
         <v>3675</v>
       </c>
       <c r="M202" t="s">
-        <v>4097</v>
+        <v>4091</v>
       </c>
       <c r="N202" t="s">
-        <v>4515</v>
+        <v>4509</v>
       </c>
       <c r="O202" t="s">
-        <v>4935</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
@@ -25459,13 +25441,13 @@
         <v>3676</v>
       </c>
       <c r="M203" t="s">
-        <v>4098</v>
+        <v>4092</v>
       </c>
       <c r="N203" t="s">
-        <v>4516</v>
+        <v>4510</v>
       </c>
       <c r="O203" t="s">
-        <v>4936</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
@@ -25506,13 +25488,13 @@
         <v>3677</v>
       </c>
       <c r="M204" t="s">
-        <v>4099</v>
+        <v>4093</v>
       </c>
       <c r="N204" t="s">
-        <v>4517</v>
+        <v>4511</v>
       </c>
       <c r="O204" t="s">
-        <v>4937</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
@@ -25553,13 +25535,13 @@
         <v>3678</v>
       </c>
       <c r="M205" t="s">
-        <v>4100</v>
+        <v>4094</v>
       </c>
       <c r="N205" t="s">
-        <v>4518</v>
+        <v>4512</v>
       </c>
       <c r="O205" t="s">
-        <v>4938</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
@@ -25600,13 +25582,13 @@
         <v>3679</v>
       </c>
       <c r="M206" t="s">
-        <v>4101</v>
+        <v>4095</v>
       </c>
       <c r="N206" t="s">
-        <v>4519</v>
+        <v>4513</v>
       </c>
       <c r="O206" t="s">
-        <v>4939</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
@@ -25647,13 +25629,13 @@
         <v>3680</v>
       </c>
       <c r="M207" t="s">
-        <v>4102</v>
+        <v>4096</v>
       </c>
       <c r="N207" t="s">
-        <v>4520</v>
+        <v>4514</v>
       </c>
       <c r="O207" t="s">
-        <v>4940</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
@@ -25694,13 +25676,13 @@
         <v>3681</v>
       </c>
       <c r="M208" t="s">
-        <v>4103</v>
+        <v>4097</v>
       </c>
       <c r="N208" t="s">
-        <v>4521</v>
+        <v>4515</v>
       </c>
       <c r="O208" t="s">
-        <v>4941</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
@@ -25741,13 +25723,13 @@
         <v>3682</v>
       </c>
       <c r="M209" t="s">
-        <v>4104</v>
+        <v>4098</v>
       </c>
       <c r="N209" t="s">
-        <v>4522</v>
+        <v>4516</v>
       </c>
       <c r="O209" t="s">
-        <v>4942</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
@@ -25788,13 +25770,13 @@
         <v>3683</v>
       </c>
       <c r="M210" t="s">
-        <v>4105</v>
+        <v>4099</v>
       </c>
       <c r="N210" t="s">
-        <v>4523</v>
+        <v>4517</v>
       </c>
       <c r="O210" t="s">
-        <v>4943</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
@@ -25835,13 +25817,13 @@
         <v>3684</v>
       </c>
       <c r="M211" t="s">
-        <v>4106</v>
+        <v>4100</v>
       </c>
       <c r="N211" t="s">
-        <v>4524</v>
+        <v>4518</v>
       </c>
       <c r="O211" t="s">
-        <v>4944</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
@@ -25882,13 +25864,13 @@
         <v>3685</v>
       </c>
       <c r="M212" t="s">
-        <v>4107</v>
+        <v>4101</v>
       </c>
       <c r="N212" t="s">
-        <v>4525</v>
+        <v>4519</v>
       </c>
       <c r="O212" t="s">
-        <v>4945</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
@@ -25929,13 +25911,13 @@
         <v>3686</v>
       </c>
       <c r="M213" t="s">
-        <v>4108</v>
+        <v>4102</v>
       </c>
       <c r="N213" t="s">
-        <v>4526</v>
+        <v>4520</v>
       </c>
       <c r="O213" t="s">
-        <v>4946</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
@@ -25976,13 +25958,13 @@
         <v>3687</v>
       </c>
       <c r="M214" t="s">
-        <v>4109</v>
+        <v>4103</v>
       </c>
       <c r="N214" t="s">
-        <v>4527</v>
+        <v>4521</v>
       </c>
       <c r="O214" t="s">
-        <v>4947</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
@@ -26023,13 +26005,13 @@
         <v>3688</v>
       </c>
       <c r="M215" t="s">
-        <v>4110</v>
+        <v>4104</v>
       </c>
       <c r="N215" t="s">
-        <v>4528</v>
+        <v>4522</v>
       </c>
       <c r="O215" t="s">
-        <v>4948</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
@@ -26070,13 +26052,13 @@
         <v>3689</v>
       </c>
       <c r="M216" t="s">
-        <v>4111</v>
+        <v>4105</v>
       </c>
       <c r="N216" t="s">
-        <v>4529</v>
+        <v>4523</v>
       </c>
       <c r="O216" t="s">
-        <v>4949</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
@@ -26117,13 +26099,13 @@
         <v>3690</v>
       </c>
       <c r="M217" t="s">
-        <v>4112</v>
+        <v>4106</v>
       </c>
       <c r="N217" t="s">
-        <v>4530</v>
+        <v>4524</v>
       </c>
       <c r="O217" t="s">
-        <v>4950</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
@@ -26164,13 +26146,13 @@
         <v>3691</v>
       </c>
       <c r="M218" t="s">
-        <v>4113</v>
+        <v>4107</v>
       </c>
       <c r="N218" t="s">
-        <v>4531</v>
+        <v>4525</v>
       </c>
       <c r="O218" t="s">
-        <v>4951</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
@@ -26211,13 +26193,13 @@
         <v>3692</v>
       </c>
       <c r="M219" t="s">
-        <v>4114</v>
+        <v>4108</v>
       </c>
       <c r="N219" t="s">
-        <v>4532</v>
+        <v>4526</v>
       </c>
       <c r="O219" t="s">
-        <v>4952</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
@@ -26258,13 +26240,13 @@
         <v>3693</v>
       </c>
       <c r="M220" t="s">
-        <v>4115</v>
+        <v>4109</v>
       </c>
       <c r="N220" t="s">
-        <v>4533</v>
+        <v>4527</v>
       </c>
       <c r="O220" t="s">
-        <v>4953</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
@@ -26305,13 +26287,13 @@
         <v>3694</v>
       </c>
       <c r="M221" t="s">
-        <v>4116</v>
+        <v>4110</v>
       </c>
       <c r="N221" t="s">
-        <v>4534</v>
+        <v>4528</v>
       </c>
       <c r="O221" t="s">
-        <v>4954</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
@@ -26352,13 +26334,13 @@
         <v>3695</v>
       </c>
       <c r="M222" t="s">
-        <v>4117</v>
+        <v>4111</v>
       </c>
       <c r="N222" t="s">
-        <v>4535</v>
+        <v>4529</v>
       </c>
       <c r="O222" t="s">
-        <v>4955</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
@@ -26399,13 +26381,13 @@
         <v>3696</v>
       </c>
       <c r="M223" t="s">
-        <v>4118</v>
+        <v>4112</v>
       </c>
       <c r="N223" t="s">
-        <v>4536</v>
+        <v>4530</v>
       </c>
       <c r="O223" t="s">
-        <v>4956</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
@@ -26446,13 +26428,13 @@
         <v>3697</v>
       </c>
       <c r="M224" t="s">
-        <v>4119</v>
+        <v>4113</v>
       </c>
       <c r="N224" t="s">
-        <v>4537</v>
+        <v>4531</v>
       </c>
       <c r="O224" t="s">
-        <v>4957</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
@@ -26493,13 +26475,13 @@
         <v>3698</v>
       </c>
       <c r="M225" t="s">
-        <v>4120</v>
+        <v>4114</v>
       </c>
       <c r="N225" t="s">
-        <v>4538</v>
+        <v>4532</v>
       </c>
       <c r="O225" t="s">
-        <v>4958</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
@@ -26540,13 +26522,13 @@
         <v>3699</v>
       </c>
       <c r="M226" t="s">
-        <v>4121</v>
+        <v>4115</v>
       </c>
       <c r="N226" t="s">
-        <v>4539</v>
+        <v>4533</v>
       </c>
       <c r="O226" t="s">
-        <v>4959</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
@@ -26587,13 +26569,13 @@
         <v>3700</v>
       </c>
       <c r="M227" t="s">
-        <v>4122</v>
+        <v>4116</v>
       </c>
       <c r="N227" t="s">
-        <v>4540</v>
+        <v>4534</v>
       </c>
       <c r="O227" t="s">
-        <v>4960</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
@@ -26634,13 +26616,13 @@
         <v>3701</v>
       </c>
       <c r="M228" t="s">
-        <v>4123</v>
+        <v>4117</v>
       </c>
       <c r="N228" t="s">
-        <v>4541</v>
+        <v>4535</v>
       </c>
       <c r="O228" t="s">
-        <v>4961</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
@@ -26681,13 +26663,13 @@
         <v>3702</v>
       </c>
       <c r="M229" t="s">
-        <v>4124</v>
+        <v>4118</v>
       </c>
       <c r="N229" t="s">
-        <v>4542</v>
+        <v>4536</v>
       </c>
       <c r="O229" t="s">
-        <v>4962</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
@@ -26728,13 +26710,13 @@
         <v>3703</v>
       </c>
       <c r="M230" t="s">
-        <v>4125</v>
+        <v>4119</v>
       </c>
       <c r="N230" t="s">
-        <v>4543</v>
+        <v>4537</v>
       </c>
       <c r="O230" t="s">
-        <v>4963</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
@@ -26775,13 +26757,13 @@
         <v>3704</v>
       </c>
       <c r="M231" t="s">
-        <v>4126</v>
+        <v>4120</v>
       </c>
       <c r="N231" t="s">
-        <v>4544</v>
+        <v>4538</v>
       </c>
       <c r="O231" t="s">
-        <v>4964</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
@@ -26822,13 +26804,13 @@
         <v>3705</v>
       </c>
       <c r="M232" t="s">
-        <v>4127</v>
+        <v>4121</v>
       </c>
       <c r="N232" t="s">
-        <v>4545</v>
+        <v>4539</v>
       </c>
       <c r="O232" t="s">
-        <v>4965</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
@@ -26869,13 +26851,13 @@
         <v>3706</v>
       </c>
       <c r="M233" t="s">
-        <v>4128</v>
+        <v>4122</v>
       </c>
       <c r="N233" t="s">
-        <v>4546</v>
+        <v>4540</v>
       </c>
       <c r="O233" t="s">
-        <v>4966</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
@@ -26916,13 +26898,13 @@
         <v>3707</v>
       </c>
       <c r="M234" t="s">
-        <v>4129</v>
+        <v>4123</v>
       </c>
       <c r="N234" t="s">
-        <v>4547</v>
+        <v>4541</v>
       </c>
       <c r="O234" t="s">
-        <v>4967</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
@@ -26963,13 +26945,13 @@
         <v>3708</v>
       </c>
       <c r="M235" t="s">
-        <v>4130</v>
+        <v>4124</v>
       </c>
       <c r="N235" t="s">
-        <v>4548</v>
+        <v>4542</v>
       </c>
       <c r="O235" t="s">
-        <v>4968</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
@@ -27010,13 +26992,13 @@
         <v>3709</v>
       </c>
       <c r="M236" t="s">
-        <v>4131</v>
+        <v>4125</v>
       </c>
       <c r="N236" t="s">
-        <v>4549</v>
+        <v>4543</v>
       </c>
       <c r="O236" t="s">
-        <v>4969</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
@@ -27057,13 +27039,13 @@
         <v>3710</v>
       </c>
       <c r="M237" t="s">
-        <v>4132</v>
+        <v>4126</v>
       </c>
       <c r="N237" t="s">
-        <v>4550</v>
+        <v>4544</v>
       </c>
       <c r="O237" t="s">
-        <v>4970</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
@@ -27104,13 +27086,13 @@
         <v>3711</v>
       </c>
       <c r="M238" t="s">
-        <v>4133</v>
+        <v>4127</v>
       </c>
       <c r="N238" t="s">
-        <v>4551</v>
+        <v>4545</v>
       </c>
       <c r="O238" t="s">
-        <v>4971</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
@@ -27151,13 +27133,13 @@
         <v>3712</v>
       </c>
       <c r="M239" t="s">
-        <v>4134</v>
+        <v>4128</v>
       </c>
       <c r="N239" t="s">
-        <v>4552</v>
+        <v>4546</v>
       </c>
       <c r="O239" t="s">
-        <v>4972</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
@@ -27198,7 +27180,7 @@
         <v>3713</v>
       </c>
       <c r="M240" t="s">
-        <v>4135</v>
+        <v>4129</v>
       </c>
       <c r="N240" t="s">
         <v>508</v>
@@ -27245,13 +27227,13 @@
         <v>3714</v>
       </c>
       <c r="M241" t="s">
-        <v>4136</v>
+        <v>4130</v>
       </c>
       <c r="N241" t="s">
-        <v>4553</v>
+        <v>4547</v>
       </c>
       <c r="O241" t="s">
-        <v>4973</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
@@ -27292,13 +27274,13 @@
         <v>3715</v>
       </c>
       <c r="M242" t="s">
-        <v>4137</v>
+        <v>4131</v>
       </c>
       <c r="N242" t="s">
-        <v>4554</v>
+        <v>4548</v>
       </c>
       <c r="O242" t="s">
-        <v>4974</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
@@ -27339,13 +27321,13 @@
         <v>3716</v>
       </c>
       <c r="M243" t="s">
-        <v>4138</v>
+        <v>4132</v>
       </c>
       <c r="N243" t="s">
-        <v>4555</v>
+        <v>4549</v>
       </c>
       <c r="O243" t="s">
-        <v>4975</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
@@ -27386,13 +27368,13 @@
         <v>3717</v>
       </c>
       <c r="M244" t="s">
-        <v>4139</v>
+        <v>4133</v>
       </c>
       <c r="N244" t="s">
-        <v>4556</v>
+        <v>4550</v>
       </c>
       <c r="O244" t="s">
-        <v>4976</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
@@ -27433,13 +27415,13 @@
         <v>3718</v>
       </c>
       <c r="M245" t="s">
-        <v>4140</v>
+        <v>4134</v>
       </c>
       <c r="N245" t="s">
-        <v>4557</v>
+        <v>4551</v>
       </c>
       <c r="O245" t="s">
-        <v>4977</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
@@ -27480,13 +27462,13 @@
         <v>3719</v>
       </c>
       <c r="M246" t="s">
-        <v>4141</v>
+        <v>4135</v>
       </c>
       <c r="N246" t="s">
-        <v>4558</v>
+        <v>4552</v>
       </c>
       <c r="O246" t="s">
-        <v>4978</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
@@ -27527,13 +27509,13 @@
         <v>3720</v>
       </c>
       <c r="M247" t="s">
-        <v>4142</v>
+        <v>4136</v>
       </c>
       <c r="N247" t="s">
-        <v>4559</v>
+        <v>4553</v>
       </c>
       <c r="O247" t="s">
-        <v>4979</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
@@ -27574,13 +27556,13 @@
         <v>3721</v>
       </c>
       <c r="M248" t="s">
-        <v>4143</v>
+        <v>4137</v>
       </c>
       <c r="N248" t="s">
-        <v>4560</v>
+        <v>4554</v>
       </c>
       <c r="O248" t="s">
-        <v>4980</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
@@ -27621,13 +27603,13 @@
         <v>3722</v>
       </c>
       <c r="M249" t="s">
-        <v>4144</v>
+        <v>4138</v>
       </c>
       <c r="N249" t="s">
-        <v>4561</v>
+        <v>4555</v>
       </c>
       <c r="O249" t="s">
-        <v>4981</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
@@ -27668,13 +27650,13 @@
         <v>3723</v>
       </c>
       <c r="M250" t="s">
-        <v>4145</v>
+        <v>4139</v>
       </c>
       <c r="N250" t="s">
-        <v>4562</v>
+        <v>4556</v>
       </c>
       <c r="O250" t="s">
-        <v>4982</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
@@ -27715,13 +27697,13 @@
         <v>3724</v>
       </c>
       <c r="M251" t="s">
-        <v>4146</v>
+        <v>4140</v>
       </c>
       <c r="N251" t="s">
-        <v>4563</v>
+        <v>4557</v>
       </c>
       <c r="O251" t="s">
-        <v>4983</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
@@ -27762,13 +27744,13 @@
         <v>3725</v>
       </c>
       <c r="M252" t="s">
-        <v>4147</v>
+        <v>4141</v>
       </c>
       <c r="N252" t="s">
-        <v>4564</v>
+        <v>4558</v>
       </c>
       <c r="O252" t="s">
-        <v>4984</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
@@ -27809,13 +27791,13 @@
         <v>3726</v>
       </c>
       <c r="M253" t="s">
-        <v>4148</v>
+        <v>4142</v>
       </c>
       <c r="N253" t="s">
-        <v>4565</v>
+        <v>4559</v>
       </c>
       <c r="O253" t="s">
-        <v>4985</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
@@ -27856,13 +27838,13 @@
         <v>3727</v>
       </c>
       <c r="M254" t="s">
-        <v>4149</v>
+        <v>4143</v>
       </c>
       <c r="N254" t="s">
-        <v>4566</v>
+        <v>4560</v>
       </c>
       <c r="O254" t="s">
-        <v>4986</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
@@ -27903,13 +27885,13 @@
         <v>3728</v>
       </c>
       <c r="M255" t="s">
-        <v>4150</v>
+        <v>4144</v>
       </c>
       <c r="N255" t="s">
-        <v>4567</v>
+        <v>4561</v>
       </c>
       <c r="O255" t="s">
-        <v>4987</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
@@ -27950,13 +27932,13 @@
         <v>3729</v>
       </c>
       <c r="M256" t="s">
-        <v>4151</v>
+        <v>4145</v>
       </c>
       <c r="N256" t="s">
-        <v>4568</v>
+        <v>4562</v>
       </c>
       <c r="O256" t="s">
-        <v>4988</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
@@ -27997,13 +27979,13 @@
         <v>3730</v>
       </c>
       <c r="M257" t="s">
-        <v>4152</v>
+        <v>4146</v>
       </c>
       <c r="N257" t="s">
-        <v>4569</v>
+        <v>4563</v>
       </c>
       <c r="O257" t="s">
-        <v>4989</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
@@ -28044,13 +28026,13 @@
         <v>3731</v>
       </c>
       <c r="M258" t="s">
-        <v>4153</v>
+        <v>4147</v>
       </c>
       <c r="N258" t="s">
-        <v>4570</v>
+        <v>4564</v>
       </c>
       <c r="O258" t="s">
-        <v>4990</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
@@ -28091,13 +28073,13 @@
         <v>3732</v>
       </c>
       <c r="M259" t="s">
-        <v>4154</v>
+        <v>4148</v>
       </c>
       <c r="N259" t="s">
-        <v>4571</v>
+        <v>4565</v>
       </c>
       <c r="O259" t="s">
-        <v>4991</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
@@ -28138,13 +28120,13 @@
         <v>3733</v>
       </c>
       <c r="M260" t="s">
-        <v>4155</v>
+        <v>4149</v>
       </c>
       <c r="N260" t="s">
-        <v>4572</v>
+        <v>4566</v>
       </c>
       <c r="O260" t="s">
-        <v>4992</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
@@ -28185,13 +28167,13 @@
         <v>3734</v>
       </c>
       <c r="M261" t="s">
-        <v>4156</v>
+        <v>4150</v>
       </c>
       <c r="N261" t="s">
-        <v>4573</v>
+        <v>4567</v>
       </c>
       <c r="O261" t="s">
-        <v>4993</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
@@ -28232,13 +28214,13 @@
         <v>3735</v>
       </c>
       <c r="M262" t="s">
-        <v>4157</v>
+        <v>4151</v>
       </c>
       <c r="N262" t="s">
-        <v>4574</v>
+        <v>4568</v>
       </c>
       <c r="O262" t="s">
-        <v>4994</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
@@ -28279,13 +28261,13 @@
         <v>3736</v>
       </c>
       <c r="M263" t="s">
-        <v>4158</v>
+        <v>4152</v>
       </c>
       <c r="N263" t="s">
-        <v>4575</v>
+        <v>4569</v>
       </c>
       <c r="O263" t="s">
-        <v>4995</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
@@ -28326,13 +28308,13 @@
         <v>3737</v>
       </c>
       <c r="M264" t="s">
-        <v>4159</v>
+        <v>4153</v>
       </c>
       <c r="N264" t="s">
-        <v>4576</v>
+        <v>4570</v>
       </c>
       <c r="O264" t="s">
-        <v>4996</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
@@ -28373,13 +28355,13 @@
         <v>3738</v>
       </c>
       <c r="M265" t="s">
-        <v>4160</v>
+        <v>4154</v>
       </c>
       <c r="N265" t="s">
-        <v>4577</v>
+        <v>4571</v>
       </c>
       <c r="O265" t="s">
-        <v>4997</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
@@ -28420,13 +28402,13 @@
         <v>3739</v>
       </c>
       <c r="M266" t="s">
-        <v>4161</v>
+        <v>4155</v>
       </c>
       <c r="N266" t="s">
-        <v>4578</v>
+        <v>4572</v>
       </c>
       <c r="O266" t="s">
-        <v>4998</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
@@ -28467,13 +28449,13 @@
         <v>3740</v>
       </c>
       <c r="M267" t="s">
-        <v>4162</v>
+        <v>4156</v>
       </c>
       <c r="N267" t="s">
-        <v>4579</v>
+        <v>4573</v>
       </c>
       <c r="O267" t="s">
-        <v>4999</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
@@ -28514,13 +28496,13 @@
         <v>3741</v>
       </c>
       <c r="M268" t="s">
-        <v>4163</v>
+        <v>4157</v>
       </c>
       <c r="N268" t="s">
-        <v>4580</v>
+        <v>4574</v>
       </c>
       <c r="O268" t="s">
-        <v>5000</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
@@ -28561,13 +28543,13 @@
         <v>3742</v>
       </c>
       <c r="M269" t="s">
-        <v>4164</v>
+        <v>4158</v>
       </c>
       <c r="N269" t="s">
-        <v>4581</v>
+        <v>4575</v>
       </c>
       <c r="O269" t="s">
-        <v>5001</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
@@ -28608,13 +28590,13 @@
         <v>3743</v>
       </c>
       <c r="M270" t="s">
-        <v>4165</v>
+        <v>4159</v>
       </c>
       <c r="N270" t="s">
-        <v>4582</v>
+        <v>4576</v>
       </c>
       <c r="O270" t="s">
-        <v>5002</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
@@ -28655,13 +28637,13 @@
         <v>3744</v>
       </c>
       <c r="M271" t="s">
-        <v>4166</v>
+        <v>4160</v>
       </c>
       <c r="N271" t="s">
-        <v>4583</v>
+        <v>4577</v>
       </c>
       <c r="O271" t="s">
-        <v>5003</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
@@ -28702,13 +28684,13 @@
         <v>3745</v>
       </c>
       <c r="M272" t="s">
-        <v>4167</v>
+        <v>4161</v>
       </c>
       <c r="N272" t="s">
-        <v>4584</v>
+        <v>4578</v>
       </c>
       <c r="O272" t="s">
-        <v>5004</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
@@ -28749,13 +28731,13 @@
         <v>3746</v>
       </c>
       <c r="M273" t="s">
-        <v>4168</v>
+        <v>4162</v>
       </c>
       <c r="N273" t="s">
-        <v>4585</v>
+        <v>4579</v>
       </c>
       <c r="O273" t="s">
-        <v>5005</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
@@ -28796,13 +28778,13 @@
         <v>3747</v>
       </c>
       <c r="M274" t="s">
-        <v>4169</v>
+        <v>4163</v>
       </c>
       <c r="N274" t="s">
-        <v>4586</v>
+        <v>4580</v>
       </c>
       <c r="O274" t="s">
-        <v>5006</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
@@ -28843,13 +28825,13 @@
         <v>3748</v>
       </c>
       <c r="M275" t="s">
-        <v>4170</v>
+        <v>4164</v>
       </c>
       <c r="N275" t="s">
-        <v>4587</v>
+        <v>4581</v>
       </c>
       <c r="O275" t="s">
-        <v>5007</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
@@ -28890,13 +28872,13 @@
         <v>3749</v>
       </c>
       <c r="M276" t="s">
-        <v>4171</v>
+        <v>4165</v>
       </c>
       <c r="N276" t="s">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="O276" t="s">
-        <v>5008</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
@@ -28937,13 +28919,13 @@
         <v>3750</v>
       </c>
       <c r="M277" t="s">
-        <v>4172</v>
+        <v>4166</v>
       </c>
       <c r="N277" t="s">
-        <v>4589</v>
+        <v>4583</v>
       </c>
       <c r="O277" t="s">
-        <v>5009</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
@@ -28984,13 +28966,13 @@
         <v>3751</v>
       </c>
       <c r="M278" t="s">
-        <v>4173</v>
+        <v>4167</v>
       </c>
       <c r="N278" t="s">
-        <v>4590</v>
+        <v>4584</v>
       </c>
       <c r="O278" t="s">
-        <v>5010</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
@@ -29034,10 +29016,10 @@
         <v>3850</v>
       </c>
       <c r="N279" t="s">
-        <v>4591</v>
+        <v>4585</v>
       </c>
       <c r="O279" t="s">
-        <v>5011</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
@@ -29078,13 +29060,13 @@
         <v>3753</v>
       </c>
       <c r="M280" t="s">
-        <v>4174</v>
+        <v>4168</v>
       </c>
       <c r="N280" t="s">
-        <v>4592</v>
+        <v>4586</v>
       </c>
       <c r="O280" t="s">
-        <v>5012</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
@@ -29125,13 +29107,13 @@
         <v>3754</v>
       </c>
       <c r="M281" t="s">
-        <v>4175</v>
+        <v>4169</v>
       </c>
       <c r="N281" t="s">
-        <v>4593</v>
+        <v>4587</v>
       </c>
       <c r="O281" t="s">
-        <v>5013</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
@@ -29172,13 +29154,13 @@
         <v>3755</v>
       </c>
       <c r="M282" t="s">
-        <v>4176</v>
+        <v>4170</v>
       </c>
       <c r="N282" t="s">
-        <v>4594</v>
+        <v>4588</v>
       </c>
       <c r="O282" t="s">
-        <v>5014</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
@@ -29219,13 +29201,13 @@
         <v>3756</v>
       </c>
       <c r="M283" t="s">
-        <v>4177</v>
+        <v>4171</v>
       </c>
       <c r="N283" t="s">
-        <v>4595</v>
+        <v>4589</v>
       </c>
       <c r="O283" t="s">
-        <v>5015</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
@@ -29266,13 +29248,13 @@
         <v>3757</v>
       </c>
       <c r="M284" t="s">
-        <v>4178</v>
+        <v>4172</v>
       </c>
       <c r="N284" t="s">
-        <v>4596</v>
+        <v>4590</v>
       </c>
       <c r="O284" t="s">
-        <v>5016</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
@@ -29313,13 +29295,13 @@
         <v>3758</v>
       </c>
       <c r="M285" t="s">
-        <v>4179</v>
+        <v>4173</v>
       </c>
       <c r="N285" t="s">
-        <v>4597</v>
+        <v>4591</v>
       </c>
       <c r="O285" t="s">
-        <v>5017</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
@@ -29360,13 +29342,13 @@
         <v>3759</v>
       </c>
       <c r="M286" t="s">
-        <v>4180</v>
+        <v>4174</v>
       </c>
       <c r="N286" t="s">
-        <v>4598</v>
+        <v>4592</v>
       </c>
       <c r="O286" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
@@ -29407,13 +29389,13 @@
         <v>3760</v>
       </c>
       <c r="M287" t="s">
-        <v>4181</v>
+        <v>4175</v>
       </c>
       <c r="N287" t="s">
-        <v>4599</v>
+        <v>4593</v>
       </c>
       <c r="O287" t="s">
-        <v>5019</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
@@ -29454,13 +29436,13 @@
         <v>3761</v>
       </c>
       <c r="M288" t="s">
-        <v>4182</v>
+        <v>4176</v>
       </c>
       <c r="N288" t="s">
-        <v>4600</v>
+        <v>4594</v>
       </c>
       <c r="O288" t="s">
-        <v>5020</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
@@ -29501,13 +29483,13 @@
         <v>3762</v>
       </c>
       <c r="M289" t="s">
-        <v>4183</v>
+        <v>4177</v>
       </c>
       <c r="N289" t="s">
-        <v>4601</v>
+        <v>4595</v>
       </c>
       <c r="O289" t="s">
-        <v>5021</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
@@ -29548,13 +29530,13 @@
         <v>3763</v>
       </c>
       <c r="M290" t="s">
-        <v>4184</v>
+        <v>4178</v>
       </c>
       <c r="N290" t="s">
-        <v>4602</v>
+        <v>4596</v>
       </c>
       <c r="O290" t="s">
-        <v>5022</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
@@ -29595,13 +29577,13 @@
         <v>3764</v>
       </c>
       <c r="M291" t="s">
-        <v>4185</v>
+        <v>4179</v>
       </c>
       <c r="N291" t="s">
-        <v>4603</v>
+        <v>4597</v>
       </c>
       <c r="O291" t="s">
-        <v>5023</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
@@ -29642,13 +29624,13 @@
         <v>3765</v>
       </c>
       <c r="M292" t="s">
-        <v>4186</v>
+        <v>4180</v>
       </c>
       <c r="N292" t="s">
-        <v>4604</v>
+        <v>4598</v>
       </c>
       <c r="O292" t="s">
-        <v>5024</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
@@ -29689,13 +29671,13 @@
         <v>3766</v>
       </c>
       <c r="M293" t="s">
-        <v>4187</v>
+        <v>4181</v>
       </c>
       <c r="N293" t="s">
-        <v>4605</v>
+        <v>4599</v>
       </c>
       <c r="O293" t="s">
-        <v>5025</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
@@ -29736,13 +29718,13 @@
         <v>3767</v>
       </c>
       <c r="M294" t="s">
-        <v>4188</v>
+        <v>4182</v>
       </c>
       <c r="N294" t="s">
-        <v>4606</v>
+        <v>4600</v>
       </c>
       <c r="O294" t="s">
-        <v>5026</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
@@ -29783,13 +29765,13 @@
         <v>3768</v>
       </c>
       <c r="M295" t="s">
-        <v>4189</v>
+        <v>4183</v>
       </c>
       <c r="N295" t="s">
-        <v>4607</v>
+        <v>4601</v>
       </c>
       <c r="O295" t="s">
-        <v>5027</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
@@ -29830,13 +29812,13 @@
         <v>3769</v>
       </c>
       <c r="M296" t="s">
-        <v>4190</v>
+        <v>4184</v>
       </c>
       <c r="N296" t="s">
-        <v>4608</v>
+        <v>4602</v>
       </c>
       <c r="O296" t="s">
-        <v>5028</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
@@ -29877,13 +29859,13 @@
         <v>3770</v>
       </c>
       <c r="M297" t="s">
-        <v>4191</v>
+        <v>4185</v>
       </c>
       <c r="N297" t="s">
-        <v>4609</v>
+        <v>4603</v>
       </c>
       <c r="O297" t="s">
-        <v>5029</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
@@ -29924,13 +29906,13 @@
         <v>3771</v>
       </c>
       <c r="M298" t="s">
-        <v>4192</v>
+        <v>4186</v>
       </c>
       <c r="N298" t="s">
-        <v>4610</v>
+        <v>4604</v>
       </c>
       <c r="O298" t="s">
-        <v>5030</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
@@ -29971,13 +29953,13 @@
         <v>3772</v>
       </c>
       <c r="M299" t="s">
-        <v>4193</v>
+        <v>4187</v>
       </c>
       <c r="N299" t="s">
-        <v>4611</v>
+        <v>4605</v>
       </c>
       <c r="O299" t="s">
-        <v>5031</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
@@ -30018,13 +30000,13 @@
         <v>3773</v>
       </c>
       <c r="M300" t="s">
-        <v>4194</v>
+        <v>4188</v>
       </c>
       <c r="N300" t="s">
-        <v>4612</v>
+        <v>4606</v>
       </c>
       <c r="O300" t="s">
-        <v>5032</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
@@ -30065,13 +30047,13 @@
         <v>3774</v>
       </c>
       <c r="M301" t="s">
-        <v>4195</v>
+        <v>4189</v>
       </c>
       <c r="N301" t="s">
-        <v>4613</v>
+        <v>4607</v>
       </c>
       <c r="O301" t="s">
-        <v>5033</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
@@ -30112,13 +30094,13 @@
         <v>3775</v>
       </c>
       <c r="M302" t="s">
-        <v>4196</v>
+        <v>4190</v>
       </c>
       <c r="N302" t="s">
-        <v>4614</v>
+        <v>4608</v>
       </c>
       <c r="O302" t="s">
-        <v>5034</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.25">
@@ -30159,13 +30141,13 @@
         <v>3776</v>
       </c>
       <c r="M303" t="s">
-        <v>4197</v>
+        <v>4191</v>
       </c>
       <c r="N303" t="s">
-        <v>4615</v>
+        <v>4609</v>
       </c>
       <c r="O303" t="s">
-        <v>5035</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
@@ -30206,13 +30188,13 @@
         <v>3777</v>
       </c>
       <c r="M304" t="s">
-        <v>4198</v>
+        <v>4192</v>
       </c>
       <c r="N304" t="s">
-        <v>4616</v>
+        <v>4610</v>
       </c>
       <c r="O304" t="s">
-        <v>5036</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
@@ -30253,13 +30235,13 @@
         <v>3778</v>
       </c>
       <c r="M305" t="s">
-        <v>4199</v>
+        <v>4193</v>
       </c>
       <c r="N305" t="s">
-        <v>4617</v>
+        <v>4611</v>
       </c>
       <c r="O305" t="s">
-        <v>5037</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.25">
@@ -30300,13 +30282,13 @@
         <v>3779</v>
       </c>
       <c r="M306" t="s">
-        <v>4200</v>
+        <v>4194</v>
       </c>
       <c r="N306" t="s">
-        <v>4618</v>
+        <v>4612</v>
       </c>
       <c r="O306" t="s">
-        <v>5038</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.25">
@@ -30347,13 +30329,13 @@
         <v>3780</v>
       </c>
       <c r="M307" t="s">
-        <v>4201</v>
+        <v>4195</v>
       </c>
       <c r="N307" t="s">
-        <v>4619</v>
+        <v>4613</v>
       </c>
       <c r="O307" t="s">
-        <v>5039</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.25">
@@ -30394,13 +30376,13 @@
         <v>3781</v>
       </c>
       <c r="M308" t="s">
-        <v>4202</v>
+        <v>4196</v>
       </c>
       <c r="N308" t="s">
-        <v>4620</v>
+        <v>4614</v>
       </c>
       <c r="O308" t="s">
-        <v>5040</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
@@ -30441,13 +30423,13 @@
         <v>3782</v>
       </c>
       <c r="M309" t="s">
-        <v>4203</v>
+        <v>4197</v>
       </c>
       <c r="N309" t="s">
-        <v>4621</v>
+        <v>4615</v>
       </c>
       <c r="O309" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
@@ -30488,13 +30470,13 @@
         <v>3783</v>
       </c>
       <c r="M310" t="s">
-        <v>4204</v>
+        <v>4198</v>
       </c>
       <c r="N310" t="s">
-        <v>4622</v>
+        <v>4616</v>
       </c>
       <c r="O310" t="s">
-        <v>5042</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.25">
@@ -30535,13 +30517,13 @@
         <v>3784</v>
       </c>
       <c r="M311" t="s">
-        <v>4205</v>
+        <v>4199</v>
       </c>
       <c r="N311" t="s">
-        <v>4623</v>
+        <v>4617</v>
       </c>
       <c r="O311" t="s">
-        <v>5043</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
@@ -30582,13 +30564,13 @@
         <v>3782</v>
       </c>
       <c r="M312" t="s">
-        <v>4206</v>
+        <v>4200</v>
       </c>
       <c r="N312" t="s">
-        <v>4624</v>
+        <v>4618</v>
       </c>
       <c r="O312" t="s">
-        <v>5044</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.25">
@@ -30629,13 +30611,13 @@
         <v>3785</v>
       </c>
       <c r="M313" t="s">
-        <v>4207</v>
+        <v>4201</v>
       </c>
       <c r="N313" t="s">
-        <v>4625</v>
+        <v>4619</v>
       </c>
       <c r="O313" t="s">
-        <v>5045</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.25">
@@ -30676,13 +30658,13 @@
         <v>3786</v>
       </c>
       <c r="M314" t="s">
-        <v>4208</v>
+        <v>4202</v>
       </c>
       <c r="N314" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="O314" t="s">
-        <v>5046</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
@@ -30723,13 +30705,13 @@
         <v>3787</v>
       </c>
       <c r="M315" t="s">
-        <v>4209</v>
+        <v>4203</v>
       </c>
       <c r="N315" t="s">
-        <v>4627</v>
+        <v>4621</v>
       </c>
       <c r="O315" t="s">
-        <v>5047</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.25">
@@ -30770,13 +30752,13 @@
         <v>3788</v>
       </c>
       <c r="M316" t="s">
-        <v>4210</v>
+        <v>4204</v>
       </c>
       <c r="N316" t="s">
-        <v>4628</v>
+        <v>4622</v>
       </c>
       <c r="O316" t="s">
-        <v>5048</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
@@ -30817,13 +30799,13 @@
         <v>3789</v>
       </c>
       <c r="M317" t="s">
-        <v>4211</v>
+        <v>4205</v>
       </c>
       <c r="N317" t="s">
-        <v>4629</v>
+        <v>4623</v>
       </c>
       <c r="O317" t="s">
-        <v>5049</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.25">
@@ -30867,10 +30849,10 @@
         <v>2932</v>
       </c>
       <c r="N318" t="s">
-        <v>4630</v>
+        <v>4624</v>
       </c>
       <c r="O318" t="s">
-        <v>5050</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
@@ -30911,13 +30893,13 @@
         <v>3791</v>
       </c>
       <c r="M319" t="s">
-        <v>4212</v>
+        <v>4206</v>
       </c>
       <c r="N319" t="s">
-        <v>4631</v>
+        <v>4625</v>
       </c>
       <c r="O319" t="s">
-        <v>5051</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
@@ -30958,13 +30940,13 @@
         <v>3792</v>
       </c>
       <c r="M320" t="s">
-        <v>4213</v>
+        <v>4207</v>
       </c>
       <c r="N320" t="s">
-        <v>4632</v>
+        <v>4626</v>
       </c>
       <c r="O320" t="s">
-        <v>5052</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
@@ -31005,13 +30987,13 @@
         <v>3793</v>
       </c>
       <c r="M321" t="s">
-        <v>4214</v>
+        <v>4208</v>
       </c>
       <c r="N321" t="s">
-        <v>4633</v>
+        <v>4627</v>
       </c>
       <c r="O321" t="s">
-        <v>5053</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
@@ -31052,13 +31034,13 @@
         <v>3794</v>
       </c>
       <c r="M322" t="s">
-        <v>4215</v>
+        <v>4209</v>
       </c>
       <c r="N322" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="O322" t="s">
-        <v>5054</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
@@ -31099,13 +31081,13 @@
         <v>3795</v>
       </c>
       <c r="M323" t="s">
-        <v>4216</v>
+        <v>4210</v>
       </c>
       <c r="N323" t="s">
-        <v>4635</v>
+        <v>4629</v>
       </c>
       <c r="O323" t="s">
-        <v>5055</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
@@ -31146,13 +31128,13 @@
         <v>3796</v>
       </c>
       <c r="M324" t="s">
-        <v>4217</v>
+        <v>4211</v>
       </c>
       <c r="N324" t="s">
-        <v>4636</v>
+        <v>4630</v>
       </c>
       <c r="O324" t="s">
-        <v>5056</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
@@ -31193,13 +31175,13 @@
         <v>3797</v>
       </c>
       <c r="M325" t="s">
-        <v>4218</v>
+        <v>4212</v>
       </c>
       <c r="N325" t="s">
-        <v>4637</v>
+        <v>4631</v>
       </c>
       <c r="O325" t="s">
-        <v>5057</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.25">
@@ -31240,13 +31222,13 @@
         <v>3798</v>
       </c>
       <c r="M326" t="s">
-        <v>4219</v>
+        <v>4213</v>
       </c>
       <c r="N326" t="s">
-        <v>4638</v>
+        <v>4632</v>
       </c>
       <c r="O326" t="s">
-        <v>5058</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
@@ -31287,13 +31269,13 @@
         <v>3799</v>
       </c>
       <c r="M327" t="s">
-        <v>4220</v>
+        <v>4214</v>
       </c>
       <c r="N327" t="s">
-        <v>4639</v>
+        <v>4633</v>
       </c>
       <c r="O327" t="s">
-        <v>5059</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
@@ -31334,13 +31316,13 @@
         <v>3800</v>
       </c>
       <c r="M328" t="s">
-        <v>4221</v>
+        <v>4215</v>
       </c>
       <c r="N328" t="s">
-        <v>4640</v>
+        <v>4634</v>
       </c>
       <c r="O328" t="s">
-        <v>5060</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.25">
@@ -31381,13 +31363,13 @@
         <v>3801</v>
       </c>
       <c r="M329" t="s">
-        <v>4222</v>
+        <v>4216</v>
       </c>
       <c r="N329" t="s">
-        <v>4641</v>
+        <v>4635</v>
       </c>
       <c r="O329" t="s">
-        <v>5061</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
@@ -31428,13 +31410,13 @@
         <v>3802</v>
       </c>
       <c r="M330" t="s">
-        <v>4223</v>
+        <v>4217</v>
       </c>
       <c r="N330" t="s">
-        <v>4642</v>
+        <v>4636</v>
       </c>
       <c r="O330" t="s">
-        <v>5062</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.25">
@@ -31475,13 +31457,13 @@
         <v>3803</v>
       </c>
       <c r="M331" t="s">
-        <v>4224</v>
+        <v>4218</v>
       </c>
       <c r="N331" t="s">
-        <v>4643</v>
+        <v>4637</v>
       </c>
       <c r="O331" t="s">
-        <v>5063</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.25">
@@ -31522,13 +31504,13 @@
         <v>3804</v>
       </c>
       <c r="M332" t="s">
-        <v>4225</v>
+        <v>4219</v>
       </c>
       <c r="N332" t="s">
-        <v>4644</v>
+        <v>4638</v>
       </c>
       <c r="O332" t="s">
-        <v>5064</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
@@ -31569,13 +31551,13 @@
         <v>3805</v>
       </c>
       <c r="M333" t="s">
-        <v>4226</v>
+        <v>4220</v>
       </c>
       <c r="N333" t="s">
-        <v>4645</v>
+        <v>4639</v>
       </c>
       <c r="O333" t="s">
-        <v>5065</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
@@ -31616,13 +31598,13 @@
         <v>3806</v>
       </c>
       <c r="M334" t="s">
-        <v>4227</v>
+        <v>4221</v>
       </c>
       <c r="N334" t="s">
-        <v>4646</v>
+        <v>4640</v>
       </c>
       <c r="O334" t="s">
-        <v>5066</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
@@ -31663,13 +31645,13 @@
         <v>3807</v>
       </c>
       <c r="M335" t="s">
-        <v>4228</v>
+        <v>4222</v>
       </c>
       <c r="N335" t="s">
-        <v>4647</v>
+        <v>4641</v>
       </c>
       <c r="O335" t="s">
-        <v>5067</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
@@ -31710,13 +31692,13 @@
         <v>3808</v>
       </c>
       <c r="M336" t="s">
-        <v>4229</v>
+        <v>4223</v>
       </c>
       <c r="N336" t="s">
-        <v>4648</v>
+        <v>4642</v>
       </c>
       <c r="O336" t="s">
-        <v>5068</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
@@ -31757,13 +31739,13 @@
         <v>3809</v>
       </c>
       <c r="M337" t="s">
-        <v>4230</v>
+        <v>4224</v>
       </c>
       <c r="N337" t="s">
-        <v>4649</v>
+        <v>4643</v>
       </c>
       <c r="O337" t="s">
-        <v>5069</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.25">
@@ -31804,13 +31786,13 @@
         <v>3810</v>
       </c>
       <c r="M338" t="s">
-        <v>4231</v>
+        <v>4225</v>
       </c>
       <c r="N338" t="s">
-        <v>4650</v>
+        <v>4644</v>
       </c>
       <c r="O338" t="s">
-        <v>5070</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.25">
@@ -31851,13 +31833,13 @@
         <v>3811</v>
       </c>
       <c r="M339" t="s">
-        <v>4232</v>
+        <v>4226</v>
       </c>
       <c r="N339" t="s">
-        <v>4651</v>
+        <v>4645</v>
       </c>
       <c r="O339" t="s">
-        <v>5071</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
@@ -31898,13 +31880,13 @@
         <v>3812</v>
       </c>
       <c r="M340" t="s">
-        <v>4233</v>
+        <v>4227</v>
       </c>
       <c r="N340" t="s">
-        <v>4652</v>
+        <v>4646</v>
       </c>
       <c r="O340" t="s">
-        <v>5072</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
@@ -31945,13 +31927,13 @@
         <v>3813</v>
       </c>
       <c r="M341" t="s">
-        <v>4234</v>
+        <v>4228</v>
       </c>
       <c r="N341" t="s">
-        <v>4653</v>
+        <v>4647</v>
       </c>
       <c r="O341" t="s">
-        <v>5073</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
@@ -31992,13 +31974,13 @@
         <v>3814</v>
       </c>
       <c r="M342" t="s">
-        <v>4235</v>
+        <v>4229</v>
       </c>
       <c r="N342" t="s">
-        <v>4654</v>
+        <v>4648</v>
       </c>
       <c r="O342" t="s">
-        <v>5074</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.25">
@@ -32039,13 +32021,13 @@
         <v>3815</v>
       </c>
       <c r="M343" t="s">
-        <v>4236</v>
+        <v>4230</v>
       </c>
       <c r="N343" t="s">
-        <v>4655</v>
+        <v>4649</v>
       </c>
       <c r="O343" t="s">
-        <v>5075</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
@@ -32086,13 +32068,13 @@
         <v>3816</v>
       </c>
       <c r="M344" t="s">
-        <v>4237</v>
+        <v>4231</v>
       </c>
       <c r="N344" t="s">
-        <v>4656</v>
+        <v>4650</v>
       </c>
       <c r="O344" t="s">
-        <v>5076</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
@@ -32133,13 +32115,13 @@
         <v>3817</v>
       </c>
       <c r="M345" t="s">
-        <v>4238</v>
+        <v>4232</v>
       </c>
       <c r="N345" t="s">
-        <v>4657</v>
+        <v>4651</v>
       </c>
       <c r="O345" t="s">
-        <v>5077</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.25">
@@ -32180,13 +32162,13 @@
         <v>3818</v>
       </c>
       <c r="M346" t="s">
-        <v>4239</v>
+        <v>4233</v>
       </c>
       <c r="N346" t="s">
-        <v>4658</v>
+        <v>4652</v>
       </c>
       <c r="O346" t="s">
-        <v>5078</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.25">
@@ -32227,13 +32209,13 @@
         <v>3819</v>
       </c>
       <c r="M347" t="s">
-        <v>4240</v>
+        <v>4234</v>
       </c>
       <c r="N347" t="s">
-        <v>4659</v>
+        <v>4653</v>
       </c>
       <c r="O347" t="s">
-        <v>5079</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
@@ -32274,13 +32256,13 @@
         <v>3820</v>
       </c>
       <c r="M348" t="s">
-        <v>4241</v>
+        <v>4235</v>
       </c>
       <c r="N348" t="s">
         <v>3653</v>
       </c>
       <c r="O348" t="s">
-        <v>5080</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.25">
@@ -32321,13 +32303,13 @@
         <v>3821</v>
       </c>
       <c r="M349" t="s">
-        <v>4242</v>
+        <v>4236</v>
       </c>
       <c r="N349" t="s">
-        <v>4660</v>
+        <v>4654</v>
       </c>
       <c r="O349" t="s">
-        <v>5081</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
@@ -32368,13 +32350,13 @@
         <v>3822</v>
       </c>
       <c r="M350" t="s">
-        <v>4243</v>
+        <v>4237</v>
       </c>
       <c r="N350" t="s">
-        <v>4661</v>
+        <v>4655</v>
       </c>
       <c r="O350" t="s">
-        <v>5082</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
@@ -32415,13 +32397,13 @@
         <v>3823</v>
       </c>
       <c r="M351" t="s">
-        <v>4244</v>
+        <v>4238</v>
       </c>
       <c r="N351" t="s">
         <v>2792</v>
       </c>
       <c r="O351" t="s">
-        <v>5083</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.25">
@@ -32462,13 +32444,13 @@
         <v>3824</v>
       </c>
       <c r="M352" t="s">
-        <v>4245</v>
+        <v>4239</v>
       </c>
       <c r="N352" t="s">
-        <v>4662</v>
+        <v>4656</v>
       </c>
       <c r="O352" t="s">
-        <v>5084</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.25">
@@ -32509,13 +32491,13 @@
         <v>3825</v>
       </c>
       <c r="M353" t="s">
-        <v>4246</v>
+        <v>4240</v>
       </c>
       <c r="N353" t="s">
-        <v>4663</v>
+        <v>4657</v>
       </c>
       <c r="O353" t="s">
-        <v>5085</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
@@ -32556,13 +32538,13 @@
         <v>3826</v>
       </c>
       <c r="M354" t="s">
-        <v>4247</v>
+        <v>4241</v>
       </c>
       <c r="N354" t="s">
-        <v>4664</v>
+        <v>4658</v>
       </c>
       <c r="O354" t="s">
-        <v>5086</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
@@ -32603,13 +32585,13 @@
         <v>3827</v>
       </c>
       <c r="M355" t="s">
-        <v>4248</v>
+        <v>4242</v>
       </c>
       <c r="N355" t="s">
-        <v>4665</v>
+        <v>4659</v>
       </c>
       <c r="O355" t="s">
-        <v>5087</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.25">
@@ -32650,13 +32632,13 @@
         <v>3828</v>
       </c>
       <c r="M356" t="s">
-        <v>4249</v>
+        <v>4243</v>
       </c>
       <c r="N356" t="s">
-        <v>4666</v>
+        <v>4660</v>
       </c>
       <c r="O356" t="s">
-        <v>5088</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.25">
@@ -32697,13 +32679,13 @@
         <v>3829</v>
       </c>
       <c r="M357" t="s">
-        <v>4250</v>
+        <v>4244</v>
       </c>
       <c r="N357" t="s">
-        <v>4667</v>
+        <v>4661</v>
       </c>
       <c r="O357" t="s">
-        <v>5089</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.25">
@@ -32744,13 +32726,13 @@
         <v>3830</v>
       </c>
       <c r="M358" t="s">
-        <v>4251</v>
+        <v>4245</v>
       </c>
       <c r="N358" t="s">
-        <v>4668</v>
+        <v>4662</v>
       </c>
       <c r="O358" t="s">
-        <v>5090</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
@@ -32791,13 +32773,13 @@
         <v>3831</v>
       </c>
       <c r="M359" t="s">
-        <v>4252</v>
+        <v>4246</v>
       </c>
       <c r="N359" t="s">
-        <v>4669</v>
+        <v>4663</v>
       </c>
       <c r="O359" t="s">
-        <v>5091</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
@@ -32838,13 +32820,13 @@
         <v>3832</v>
       </c>
       <c r="M360" t="s">
-        <v>4253</v>
+        <v>4247</v>
       </c>
       <c r="N360" t="s">
-        <v>4670</v>
+        <v>4664</v>
       </c>
       <c r="O360" t="s">
-        <v>5092</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
@@ -32885,13 +32867,13 @@
         <v>3833</v>
       </c>
       <c r="M361" t="s">
-        <v>4254</v>
+        <v>4248</v>
       </c>
       <c r="N361" t="s">
-        <v>4671</v>
+        <v>4665</v>
       </c>
       <c r="O361" t="s">
-        <v>5093</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
@@ -32932,13 +32914,13 @@
         <v>3834</v>
       </c>
       <c r="M362" t="s">
-        <v>4255</v>
+        <v>4249</v>
       </c>
       <c r="N362" t="s">
-        <v>4672</v>
+        <v>4666</v>
       </c>
       <c r="O362" t="s">
-        <v>5094</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
@@ -32982,10 +32964,10 @@
         <v>3653</v>
       </c>
       <c r="N363" t="s">
-        <v>4673</v>
+        <v>4667</v>
       </c>
       <c r="O363" t="s">
-        <v>5095</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
@@ -33026,13 +33008,13 @@
         <v>3836</v>
       </c>
       <c r="M364" t="s">
-        <v>4256</v>
+        <v>4250</v>
       </c>
       <c r="N364" t="s">
-        <v>4674</v>
+        <v>4668</v>
       </c>
       <c r="O364" t="s">
-        <v>5096</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
@@ -33073,13 +33055,13 @@
         <v>3837</v>
       </c>
       <c r="M365" t="s">
-        <v>4257</v>
+        <v>4251</v>
       </c>
       <c r="N365" t="s">
-        <v>4675</v>
+        <v>4669</v>
       </c>
       <c r="O365" t="s">
-        <v>5097</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
@@ -33120,13 +33102,13 @@
         <v>3838</v>
       </c>
       <c r="M366" t="s">
-        <v>4258</v>
+        <v>4252</v>
       </c>
       <c r="N366" t="s">
-        <v>4676</v>
+        <v>4670</v>
       </c>
       <c r="O366" t="s">
-        <v>5098</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
@@ -33167,13 +33149,13 @@
         <v>3839</v>
       </c>
       <c r="M367" t="s">
-        <v>4259</v>
+        <v>4253</v>
       </c>
       <c r="N367" t="s">
-        <v>4677</v>
+        <v>4671</v>
       </c>
       <c r="O367" t="s">
-        <v>5099</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.25">
@@ -33214,13 +33196,13 @@
         <v>3840</v>
       </c>
       <c r="M368" t="s">
-        <v>4260</v>
+        <v>4254</v>
       </c>
       <c r="N368" t="s">
-        <v>4678</v>
+        <v>4672</v>
       </c>
       <c r="O368" t="s">
-        <v>5100</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.25">
@@ -33261,13 +33243,13 @@
         <v>3841</v>
       </c>
       <c r="M369" t="s">
-        <v>4261</v>
+        <v>4255</v>
       </c>
       <c r="N369" t="s">
-        <v>4679</v>
+        <v>4673</v>
       </c>
       <c r="O369" t="s">
-        <v>4048</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.25">
@@ -33308,13 +33290,13 @@
         <v>3842</v>
       </c>
       <c r="M370" t="s">
-        <v>4262</v>
+        <v>4256</v>
       </c>
       <c r="N370" t="s">
-        <v>4680</v>
+        <v>4674</v>
       </c>
       <c r="O370" t="s">
-        <v>5101</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.25">
@@ -33355,13 +33337,13 @@
         <v>3843</v>
       </c>
       <c r="M371" t="s">
-        <v>4263</v>
+        <v>4257</v>
       </c>
       <c r="N371" t="s">
-        <v>4681</v>
+        <v>4675</v>
       </c>
       <c r="O371" t="s">
-        <v>5102</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.25">
@@ -33402,13 +33384,13 @@
         <v>3844</v>
       </c>
       <c r="M372" t="s">
-        <v>4264</v>
+        <v>4258</v>
       </c>
       <c r="N372" t="s">
-        <v>4682</v>
+        <v>4676</v>
       </c>
       <c r="O372" t="s">
-        <v>5103</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.25">
@@ -33449,13 +33431,13 @@
         <v>3845</v>
       </c>
       <c r="M373" t="s">
-        <v>4265</v>
+        <v>4259</v>
       </c>
       <c r="N373" t="s">
-        <v>4683</v>
+        <v>4677</v>
       </c>
       <c r="O373" t="s">
-        <v>5104</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.25">
@@ -33496,13 +33478,13 @@
         <v>3846</v>
       </c>
       <c r="M374" t="s">
-        <v>4266</v>
+        <v>4260</v>
       </c>
       <c r="N374" t="s">
-        <v>4684</v>
+        <v>4678</v>
       </c>
       <c r="O374" t="s">
-        <v>5105</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.25">
@@ -33543,13 +33525,13 @@
         <v>3847</v>
       </c>
       <c r="M375" t="s">
-        <v>4267</v>
+        <v>4261</v>
       </c>
       <c r="N375" t="s">
-        <v>4685</v>
+        <v>4679</v>
       </c>
       <c r="O375" t="s">
-        <v>5106</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.25">
@@ -33590,13 +33572,13 @@
         <v>3848</v>
       </c>
       <c r="M376" t="s">
-        <v>4268</v>
+        <v>4262</v>
       </c>
       <c r="N376" t="s">
-        <v>4686</v>
+        <v>4680</v>
       </c>
       <c r="O376" t="s">
-        <v>5107</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.25">
@@ -33637,13 +33619,13 @@
         <v>3849</v>
       </c>
       <c r="M377" t="s">
-        <v>4269</v>
+        <v>4263</v>
       </c>
       <c r="N377" t="s">
-        <v>4687</v>
+        <v>4681</v>
       </c>
       <c r="O377" t="s">
-        <v>5108</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.25">
@@ -33684,13 +33666,13 @@
         <v>3850</v>
       </c>
       <c r="M378" t="s">
-        <v>4270</v>
+        <v>4264</v>
       </c>
       <c r="N378" t="s">
-        <v>4688</v>
+        <v>4682</v>
       </c>
       <c r="O378" t="s">
-        <v>5109</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.25">
@@ -33731,13 +33713,13 @@
         <v>3851</v>
       </c>
       <c r="M379" t="s">
-        <v>4271</v>
+        <v>4265</v>
       </c>
       <c r="N379" t="s">
-        <v>4689</v>
+        <v>4683</v>
       </c>
       <c r="O379" t="s">
-        <v>5110</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
@@ -33778,13 +33760,13 @@
         <v>3852</v>
       </c>
       <c r="M380" t="s">
-        <v>4272</v>
+        <v>4266</v>
       </c>
       <c r="N380" t="s">
-        <v>4690</v>
+        <v>4684</v>
       </c>
       <c r="O380" t="s">
-        <v>5111</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.25">
@@ -33825,13 +33807,13 @@
         <v>3853</v>
       </c>
       <c r="M381" t="s">
-        <v>4273</v>
+        <v>4267</v>
       </c>
       <c r="N381" t="s">
-        <v>4691</v>
+        <v>4685</v>
       </c>
       <c r="O381" t="s">
-        <v>5112</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.25">
@@ -33872,13 +33854,13 @@
         <v>3854</v>
       </c>
       <c r="M382" t="s">
-        <v>4274</v>
+        <v>4268</v>
       </c>
       <c r="N382" t="s">
-        <v>4692</v>
+        <v>4686</v>
       </c>
       <c r="O382" t="s">
-        <v>5113</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.25">
@@ -33919,13 +33901,13 @@
         <v>3855</v>
       </c>
       <c r="M383" t="s">
-        <v>4275</v>
+        <v>4269</v>
       </c>
       <c r="N383" t="s">
-        <v>4693</v>
+        <v>4687</v>
       </c>
       <c r="O383" t="s">
-        <v>5114</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.25">
@@ -33966,13 +33948,13 @@
         <v>3856</v>
       </c>
       <c r="M384" t="s">
-        <v>4276</v>
+        <v>4270</v>
       </c>
       <c r="N384" t="s">
         <v>2820</v>
       </c>
       <c r="O384" t="s">
-        <v>5115</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.25">
@@ -34013,13 +33995,13 @@
         <v>3857</v>
       </c>
       <c r="M385" t="s">
-        <v>4277</v>
+        <v>4271</v>
       </c>
       <c r="N385" t="s">
-        <v>4694</v>
+        <v>4688</v>
       </c>
       <c r="O385" t="s">
-        <v>5116</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.25">
@@ -34060,13 +34042,13 @@
         <v>3858</v>
       </c>
       <c r="M386" t="s">
-        <v>4278</v>
+        <v>4272</v>
       </c>
       <c r="N386" t="s">
-        <v>4695</v>
+        <v>4689</v>
       </c>
       <c r="O386" t="s">
-        <v>5117</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.25">
@@ -34107,13 +34089,13 @@
         <v>3859</v>
       </c>
       <c r="M387" t="s">
-        <v>4279</v>
+        <v>4273</v>
       </c>
       <c r="N387" t="s">
-        <v>4696</v>
+        <v>4690</v>
       </c>
       <c r="O387" t="s">
-        <v>5118</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.25">
@@ -34154,13 +34136,13 @@
         <v>3860</v>
       </c>
       <c r="M388" t="s">
-        <v>4280</v>
+        <v>4274</v>
       </c>
       <c r="N388" t="s">
-        <v>4697</v>
+        <v>4691</v>
       </c>
       <c r="O388" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.25">
@@ -34201,13 +34183,13 @@
         <v>3861</v>
       </c>
       <c r="M389" t="s">
-        <v>4281</v>
+        <v>4275</v>
       </c>
       <c r="N389" t="s">
-        <v>4698</v>
+        <v>4692</v>
       </c>
       <c r="O389" t="s">
-        <v>5120</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.25">
@@ -34248,13 +34230,13 @@
         <v>3862</v>
       </c>
       <c r="M390" t="s">
-        <v>4282</v>
+        <v>4276</v>
       </c>
       <c r="N390" t="s">
-        <v>4206</v>
+        <v>4200</v>
       </c>
       <c r="O390" t="s">
-        <v>5121</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.25">
@@ -34295,13 +34277,13 @@
         <v>3863</v>
       </c>
       <c r="M391" t="s">
-        <v>4283</v>
+        <v>4277</v>
       </c>
       <c r="N391" t="s">
-        <v>4699</v>
+        <v>4693</v>
       </c>
       <c r="O391" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.25">
@@ -34342,13 +34324,13 @@
         <v>3864</v>
       </c>
       <c r="M392" t="s">
-        <v>4284</v>
+        <v>4278</v>
       </c>
       <c r="N392" t="s">
-        <v>4700</v>
+        <v>4694</v>
       </c>
       <c r="O392" t="s">
-        <v>5123</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.25">
@@ -34389,13 +34371,13 @@
         <v>3865</v>
       </c>
       <c r="M393" t="s">
-        <v>4285</v>
+        <v>4279</v>
       </c>
       <c r="N393" t="s">
-        <v>4701</v>
+        <v>4695</v>
       </c>
       <c r="O393" t="s">
-        <v>5124</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.25">
@@ -34436,13 +34418,13 @@
         <v>3866</v>
       </c>
       <c r="M394" t="s">
-        <v>4286</v>
+        <v>4280</v>
       </c>
       <c r="N394" t="s">
-        <v>4702</v>
+        <v>4696</v>
       </c>
       <c r="O394" t="s">
-        <v>5125</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.25">
@@ -34483,13 +34465,13 @@
         <v>3867</v>
       </c>
       <c r="M395" t="s">
-        <v>4287</v>
+        <v>4281</v>
       </c>
       <c r="N395" t="s">
-        <v>4703</v>
+        <v>4697</v>
       </c>
       <c r="O395" t="s">
-        <v>5126</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.25">
@@ -34530,13 +34512,13 @@
         <v>3868</v>
       </c>
       <c r="M396" t="s">
-        <v>4288</v>
+        <v>4282</v>
       </c>
       <c r="N396" t="s">
-        <v>4704</v>
+        <v>4698</v>
       </c>
       <c r="O396" t="s">
-        <v>5127</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.25">
@@ -34577,13 +34559,13 @@
         <v>3869</v>
       </c>
       <c r="M397" t="s">
-        <v>4289</v>
+        <v>4283</v>
       </c>
       <c r="N397" t="s">
-        <v>4705</v>
+        <v>4699</v>
       </c>
       <c r="O397" t="s">
-        <v>5128</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.25">
@@ -34624,13 +34606,13 @@
         <v>3870</v>
       </c>
       <c r="M398" t="s">
-        <v>4290</v>
+        <v>4284</v>
       </c>
       <c r="N398" t="s">
-        <v>4706</v>
+        <v>4700</v>
       </c>
       <c r="O398" t="s">
-        <v>5129</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.25">
@@ -34671,13 +34653,13 @@
         <v>3871</v>
       </c>
       <c r="M399" t="s">
-        <v>4291</v>
+        <v>4285</v>
       </c>
       <c r="N399" t="s">
-        <v>4707</v>
+        <v>4701</v>
       </c>
       <c r="O399" t="s">
-        <v>5130</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.25">
@@ -34718,13 +34700,13 @@
         <v>3872</v>
       </c>
       <c r="M400" t="s">
-        <v>4292</v>
+        <v>4286</v>
       </c>
       <c r="N400" t="s">
-        <v>4708</v>
+        <v>4702</v>
       </c>
       <c r="O400" t="s">
-        <v>5131</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.25">
@@ -34765,13 +34747,13 @@
         <v>3873</v>
       </c>
       <c r="M401" t="s">
-        <v>4293</v>
+        <v>4287</v>
       </c>
       <c r="N401" t="s">
-        <v>4709</v>
+        <v>4703</v>
       </c>
       <c r="O401" t="s">
-        <v>5132</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.25">
@@ -34812,13 +34794,13 @@
         <v>3874</v>
       </c>
       <c r="M402" t="s">
-        <v>4294</v>
+        <v>4288</v>
       </c>
       <c r="N402" t="s">
-        <v>4710</v>
+        <v>4704</v>
       </c>
       <c r="O402" t="s">
-        <v>5133</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.25">
@@ -34859,13 +34841,13 @@
         <v>3875</v>
       </c>
       <c r="M403" t="s">
-        <v>4295</v>
+        <v>4289</v>
       </c>
       <c r="N403" t="s">
-        <v>4711</v>
+        <v>4705</v>
       </c>
       <c r="O403" t="s">
-        <v>5134</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.25">
@@ -34906,13 +34888,13 @@
         <v>3876</v>
       </c>
       <c r="M404" t="s">
-        <v>4296</v>
+        <v>4290</v>
       </c>
       <c r="N404" t="s">
-        <v>4712</v>
+        <v>4706</v>
       </c>
       <c r="O404" t="s">
-        <v>5135</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="405" spans="1:15" x14ac:dyDescent="0.25">
@@ -34953,13 +34935,13 @@
         <v>3877</v>
       </c>
       <c r="M405" t="s">
-        <v>4297</v>
+        <v>4291</v>
       </c>
       <c r="N405" t="s">
-        <v>4713</v>
+        <v>4707</v>
       </c>
       <c r="O405" t="s">
-        <v>5136</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.25">
@@ -35000,13 +34982,13 @@
         <v>3878</v>
       </c>
       <c r="M406" t="s">
-        <v>4298</v>
+        <v>4292</v>
       </c>
       <c r="N406" t="s">
-        <v>4714</v>
+        <v>4708</v>
       </c>
       <c r="O406" t="s">
-        <v>5137</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.25">
@@ -35047,13 +35029,13 @@
         <v>3879</v>
       </c>
       <c r="M407" t="s">
-        <v>4299</v>
+        <v>4293</v>
       </c>
       <c r="N407" t="s">
-        <v>4715</v>
+        <v>4709</v>
       </c>
       <c r="O407" t="s">
-        <v>5138</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.25">
@@ -35094,13 +35076,13 @@
         <v>3009</v>
       </c>
       <c r="M408" t="s">
-        <v>4300</v>
+        <v>4294</v>
       </c>
       <c r="N408" t="s">
-        <v>4716</v>
+        <v>4710</v>
       </c>
       <c r="O408" t="s">
-        <v>5139</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.25">
@@ -35141,13 +35123,13 @@
         <v>3880</v>
       </c>
       <c r="M409" t="s">
-        <v>4301</v>
+        <v>4295</v>
       </c>
       <c r="N409" t="s">
-        <v>4717</v>
+        <v>4711</v>
       </c>
       <c r="O409" t="s">
-        <v>5140</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.25">
@@ -35188,13 +35170,13 @@
         <v>3881</v>
       </c>
       <c r="M410" t="s">
-        <v>4302</v>
+        <v>4296</v>
       </c>
       <c r="N410" t="s">
-        <v>4718</v>
+        <v>4712</v>
       </c>
       <c r="O410" t="s">
-        <v>5141</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.25">
@@ -35235,13 +35217,13 @@
         <v>3882</v>
       </c>
       <c r="M411" t="s">
-        <v>4303</v>
+        <v>4297</v>
       </c>
       <c r="N411" t="s">
-        <v>4719</v>
+        <v>4713</v>
       </c>
       <c r="O411" t="s">
-        <v>5142</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.25">
@@ -35282,13 +35264,13 @@
         <v>3883</v>
       </c>
       <c r="M412" t="s">
-        <v>4304</v>
+        <v>4298</v>
       </c>
       <c r="N412" t="s">
-        <v>4720</v>
+        <v>4714</v>
       </c>
       <c r="O412" t="s">
-        <v>5143</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.25">
@@ -35329,13 +35311,13 @@
         <v>3884</v>
       </c>
       <c r="M413" t="s">
-        <v>4305</v>
+        <v>4299</v>
       </c>
       <c r="N413" t="s">
-        <v>4721</v>
+        <v>4715</v>
       </c>
       <c r="O413" t="s">
-        <v>5144</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.25">
@@ -35376,13 +35358,13 @@
         <v>3885</v>
       </c>
       <c r="M414" t="s">
-        <v>4306</v>
+        <v>4300</v>
       </c>
       <c r="N414" t="s">
-        <v>4722</v>
+        <v>4716</v>
       </c>
       <c r="O414" t="s">
-        <v>5145</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.25">
@@ -35423,13 +35405,13 @@
         <v>3886</v>
       </c>
       <c r="M415" t="s">
-        <v>4307</v>
+        <v>4301</v>
       </c>
       <c r="N415" t="s">
-        <v>4723</v>
+        <v>4717</v>
       </c>
       <c r="O415" t="s">
-        <v>5146</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.25">
@@ -35470,13 +35452,13 @@
         <v>3887</v>
       </c>
       <c r="M416" t="s">
-        <v>4308</v>
+        <v>4302</v>
       </c>
       <c r="N416" t="s">
-        <v>4724</v>
+        <v>4718</v>
       </c>
       <c r="O416" t="s">
-        <v>5147</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.25">
@@ -35517,13 +35499,13 @@
         <v>3888</v>
       </c>
       <c r="M417" t="s">
-        <v>4309</v>
+        <v>4303</v>
       </c>
       <c r="N417" t="s">
-        <v>4725</v>
+        <v>4719</v>
       </c>
       <c r="O417" t="s">
-        <v>5148</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.25">
@@ -35564,13 +35546,13 @@
         <v>3889</v>
       </c>
       <c r="M418" t="s">
-        <v>4310</v>
+        <v>4304</v>
       </c>
       <c r="N418" t="s">
-        <v>4726</v>
+        <v>4720</v>
       </c>
       <c r="O418" t="s">
-        <v>5149</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="419" spans="1:15" x14ac:dyDescent="0.25">
@@ -35611,13 +35593,13 @@
         <v>3890</v>
       </c>
       <c r="M419" t="s">
-        <v>4311</v>
+        <v>4305</v>
       </c>
       <c r="N419" t="s">
-        <v>4727</v>
+        <v>4721</v>
       </c>
       <c r="O419" t="s">
-        <v>5150</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.25">
@@ -35658,13 +35640,13 @@
         <v>3891</v>
       </c>
       <c r="M420" t="s">
-        <v>4312</v>
+        <v>4306</v>
       </c>
       <c r="N420" t="s">
-        <v>4728</v>
+        <v>4722</v>
       </c>
       <c r="O420" t="s">
-        <v>5151</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.25">
@@ -35705,13 +35687,13 @@
         <v>3892</v>
       </c>
       <c r="M421" t="s">
-        <v>4313</v>
+        <v>4307</v>
       </c>
       <c r="N421" t="s">
-        <v>4729</v>
+        <v>4723</v>
       </c>
       <c r="O421" t="s">
-        <v>5152</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.25">
@@ -35752,13 +35734,13 @@
         <v>3893</v>
       </c>
       <c r="M422" t="s">
-        <v>4314</v>
+        <v>4308</v>
       </c>
       <c r="N422" t="s">
-        <v>4730</v>
+        <v>4724</v>
       </c>
       <c r="O422" t="s">
-        <v>5153</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.25">
@@ -35799,13 +35781,13 @@
         <v>3894</v>
       </c>
       <c r="M423" t="s">
-        <v>4315</v>
+        <v>4309</v>
       </c>
       <c r="N423" t="s">
-        <v>4731</v>
+        <v>4725</v>
       </c>
       <c r="O423" t="s">
-        <v>5154</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.25">
@@ -35846,13 +35828,13 @@
         <v>3895</v>
       </c>
       <c r="M424" t="s">
-        <v>4316</v>
+        <v>4310</v>
       </c>
       <c r="N424" t="s">
-        <v>4732</v>
+        <v>4726</v>
       </c>
       <c r="O424" t="s">
-        <v>5155</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.25">
@@ -35893,13 +35875,13 @@
         <v>3896</v>
       </c>
       <c r="M425" t="s">
-        <v>4317</v>
+        <v>4311</v>
       </c>
       <c r="N425" t="s">
-        <v>4733</v>
+        <v>4727</v>
       </c>
       <c r="O425" t="s">
-        <v>5156</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.25">
@@ -35940,13 +35922,13 @@
         <v>3897</v>
       </c>
       <c r="M426" t="s">
-        <v>4318</v>
+        <v>4312</v>
       </c>
       <c r="N426" t="s">
-        <v>4734</v>
+        <v>4728</v>
       </c>
       <c r="O426" t="s">
-        <v>5157</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.25">
@@ -35987,13 +35969,13 @@
         <v>3898</v>
       </c>
       <c r="M427" t="s">
-        <v>4319</v>
+        <v>4313</v>
       </c>
       <c r="N427" t="s">
-        <v>4735</v>
+        <v>4729</v>
       </c>
       <c r="O427" t="s">
-        <v>5158</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.25">
@@ -36030,17 +36012,17 @@
       <c r="K428" t="s">
         <v>3475</v>
       </c>
-      <c r="L428" t="s">
-        <v>3899</v>
+      <c r="L428">
+        <v>-99</v>
       </c>
       <c r="M428" t="s">
-        <v>4320</v>
+        <v>4314</v>
       </c>
       <c r="N428" t="s">
-        <v>4736</v>
+        <v>4730</v>
       </c>
       <c r="O428" t="s">
-        <v>5159</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.25">
@@ -36077,17 +36059,17 @@
       <c r="K429" t="s">
         <v>3476</v>
       </c>
-      <c r="L429" t="s">
-        <v>3900</v>
+      <c r="L429">
+        <v>-99</v>
       </c>
       <c r="M429" t="s">
-        <v>4321</v>
+        <v>4315</v>
       </c>
       <c r="N429" t="s">
-        <v>4737</v>
+        <v>4731</v>
       </c>
       <c r="O429" t="s">
-        <v>5160</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="430" spans="1:15" x14ac:dyDescent="0.25">
@@ -36124,17 +36106,17 @@
       <c r="K430" t="s">
         <v>3477</v>
       </c>
-      <c r="L430" t="s">
-        <v>3901</v>
+      <c r="L430">
+        <v>-99</v>
       </c>
       <c r="M430" t="s">
-        <v>4322</v>
+        <v>4316</v>
       </c>
       <c r="N430" t="s">
-        <v>4738</v>
+        <v>4732</v>
       </c>
       <c r="O430" t="s">
-        <v>5161</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.25">
@@ -36171,17 +36153,17 @@
       <c r="K431" t="s">
         <v>3478</v>
       </c>
-      <c r="L431" t="s">
-        <v>3902</v>
+      <c r="L431">
+        <v>-99</v>
       </c>
       <c r="M431" t="s">
-        <v>4323</v>
+        <v>4317</v>
       </c>
       <c r="N431" t="s">
-        <v>4739</v>
+        <v>4733</v>
       </c>
       <c r="O431" t="s">
-        <v>5162</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.25">
@@ -36218,17 +36200,17 @@
       <c r="K432" t="s">
         <v>3479</v>
       </c>
-      <c r="L432" t="s">
-        <v>3903</v>
+      <c r="L432">
+        <v>-99</v>
       </c>
       <c r="M432" t="s">
-        <v>4324</v>
+        <v>4318</v>
       </c>
       <c r="N432" t="s">
-        <v>4740</v>
+        <v>4734</v>
       </c>
       <c r="O432" t="s">
-        <v>5163</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.25">
@@ -36265,17 +36247,17 @@
       <c r="K433" t="s">
         <v>3480</v>
       </c>
-      <c r="L433" t="s">
-        <v>3904</v>
+      <c r="L433">
+        <v>-99</v>
       </c>
       <c r="M433" t="s">
-        <v>4325</v>
+        <v>4319</v>
       </c>
       <c r="N433" t="s">
-        <v>4741</v>
+        <v>4735</v>
       </c>
       <c r="O433" t="s">
-        <v>5164</v>
+        <v>5158</v>
       </c>
     </row>
   </sheetData>
